--- a/assets/docs/SG-GanttChartSchedule.xlsx
+++ b/assets/docs/SG-GanttChartSchedule.xlsx
@@ -16,6 +16,8 @@
     <sheet state="visible" name="Week 13" sheetId="11" r:id="rId14"/>
     <sheet state="visible" name="Week 14" sheetId="12" r:id="rId15"/>
     <sheet state="visible" name="Week 15" sheetId="13" r:id="rId16"/>
+    <sheet state="visible" name="Week 16 (Reading Week)" sheetId="14" r:id="rId17"/>
+    <sheet state="visible" name="Week 17 (Finals Week)" sheetId="15" r:id="rId18"/>
   </sheets>
   <definedNames/>
   <calcPr/>
@@ -23,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1449" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1693" uniqueCount="145">
   <si>
     <t>Week of:</t>
   </si>
@@ -705,6 +707,14 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
+<file path=xl/drawings/drawing14.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing15.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
@@ -17041,9 +17051,9 @@
         <v>69</v>
       </c>
       <c r="B70" s="19"/>
-      <c r="T70" s="14"/>
+      <c r="T70" s="11"/>
       <c r="U70" s="8"/>
-      <c r="V70" s="15"/>
+      <c r="V70" s="11"/>
     </row>
     <row r="71">
       <c r="A71" s="18" t="s">
@@ -17059,9 +17069,9 @@
         <v>71</v>
       </c>
       <c r="B72" s="19"/>
-      <c r="T72" s="14"/>
+      <c r="T72" s="11"/>
       <c r="U72" s="8"/>
-      <c r="V72" s="15"/>
+      <c r="V72" s="11"/>
     </row>
     <row r="73">
       <c r="A73" s="18" t="s">
@@ -17069,7 +17079,7 @@
       </c>
       <c r="B73" s="19"/>
       <c r="U73" s="8"/>
-      <c r="V73" s="15"/>
+      <c r="V73" s="11"/>
     </row>
     <row r="74">
       <c r="A74" s="18" t="s">
@@ -17139,7 +17149,7 @@
         <v>108</v>
       </c>
       <c r="U81" s="8"/>
-      <c r="X81" s="15"/>
+      <c r="X81" s="11"/>
     </row>
     <row r="82">
       <c r="A82" s="12"/>
@@ -17243,7 +17253,7 @@
         <v>121</v>
       </c>
       <c r="U94" s="8"/>
-      <c r="X94" s="15"/>
+      <c r="X94" s="11"/>
     </row>
     <row r="95">
       <c r="A95" s="12"/>
@@ -17259,7 +17269,7 @@
         <v>123</v>
       </c>
       <c r="U96" s="8"/>
-      <c r="X96" s="15"/>
+      <c r="X96" s="11"/>
     </row>
     <row r="97">
       <c r="A97" s="12"/>
@@ -20197,6 +20207,7827 @@
     </row>
     <row r="1054">
       <c r="U1054" s="8"/>
+    </row>
+  </sheetData>
+  <printOptions gridLines="1" horizontalCentered="1"/>
+  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup fitToHeight="0" cellComments="atEnd" orientation="landscape" pageOrder="overThenDown"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1.0" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="B3" sqref="B3" pane="bottomLeft"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <cols>
+    <col customWidth="1" min="1" max="1" width="33.13"/>
+    <col customWidth="1" min="2" max="2" width="89.75"/>
+    <col customWidth="1" min="3" max="5" width="7.5"/>
+    <col customWidth="1" min="6" max="6" width="5.63"/>
+    <col customWidth="1" min="7" max="10" width="6.5"/>
+    <col customWidth="1" min="11" max="11" width="5.63"/>
+    <col customWidth="1" min="12" max="14" width="6.5"/>
+    <col customWidth="1" min="15" max="15" width="5.63"/>
+    <col customWidth="1" min="16" max="18" width="6.5"/>
+    <col customWidth="1" min="19" max="19" width="5.63"/>
+    <col customWidth="1" min="20" max="21" width="6.5"/>
+    <col customWidth="1" min="22" max="22" width="3.5"/>
+    <col customWidth="1" min="23" max="23" width="6.5"/>
+    <col customWidth="1" min="24" max="24" width="5.63"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2">
+        <v>44543.0</v>
+      </c>
+      <c r="D1" s="2">
+        <v>44550.0</v>
+      </c>
+      <c r="E1" s="2">
+        <v>44557.0</v>
+      </c>
+      <c r="F1" s="2">
+        <v>44564.0</v>
+      </c>
+      <c r="G1" s="3">
+        <v>44571.0</v>
+      </c>
+      <c r="H1" s="3">
+        <v>44578.0</v>
+      </c>
+      <c r="I1" s="3">
+        <v>44585.0</v>
+      </c>
+      <c r="J1" s="3">
+        <v>44592.0</v>
+      </c>
+      <c r="K1" s="3">
+        <v>44599.0</v>
+      </c>
+      <c r="L1" s="3">
+        <v>44606.0</v>
+      </c>
+      <c r="M1" s="3">
+        <v>44613.0</v>
+      </c>
+      <c r="N1" s="3">
+        <v>44620.0</v>
+      </c>
+      <c r="O1" s="3">
+        <v>44627.0</v>
+      </c>
+      <c r="P1" s="5">
+        <v>44634.0</v>
+      </c>
+      <c r="Q1" s="3">
+        <v>44641.0</v>
+      </c>
+      <c r="R1" s="3">
+        <v>44648.0</v>
+      </c>
+      <c r="S1" s="3">
+        <v>44655.0</v>
+      </c>
+      <c r="T1" s="3">
+        <v>44662.0</v>
+      </c>
+      <c r="U1" s="3">
+        <v>44669.0</v>
+      </c>
+      <c r="V1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="W1" s="3">
+        <v>44676.0</v>
+      </c>
+      <c r="X1" s="3">
+        <v>44683.0</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="V2" s="8"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
+      <c r="V3" s="8"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="12"/>
+      <c r="B4" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
+      <c r="V4" s="8"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" s="11"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="11"/>
+      <c r="V5" s="8"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="12"/>
+      <c r="B6" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="11"/>
+      <c r="V6" s="8"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="12"/>
+      <c r="B7" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="11"/>
+      <c r="V7" s="8"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="12"/>
+      <c r="B8" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="11"/>
+      <c r="V8" s="8"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="12"/>
+      <c r="B9" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="11"/>
+      <c r="V9" s="8"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="12"/>
+      <c r="B10" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F10" s="11"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="11"/>
+      <c r="V10" s="8"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="12"/>
+      <c r="B11" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="F11" s="11"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="11"/>
+      <c r="V11" s="8"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="12"/>
+      <c r="B12" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F12" s="11"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="11"/>
+      <c r="V12" s="8"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="12"/>
+      <c r="B13" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="F13" s="11"/>
+      <c r="G13" s="11"/>
+      <c r="H13" s="11"/>
+      <c r="V13" s="8"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="12"/>
+      <c r="B14" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="F14" s="11"/>
+      <c r="G14" s="11"/>
+      <c r="H14" s="11"/>
+      <c r="V14" s="8"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15" s="10"/>
+      <c r="H15" s="11"/>
+      <c r="V15" s="8"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16" s="10"/>
+      <c r="H16" s="11"/>
+      <c r="I16" s="11"/>
+      <c r="J16" s="11"/>
+      <c r="V16" s="8"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B17" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="I17" s="11"/>
+      <c r="J17" s="11"/>
+      <c r="V17" s="8"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="12"/>
+      <c r="B18" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="I18" s="11"/>
+      <c r="J18" s="11"/>
+      <c r="V18" s="8"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="12"/>
+      <c r="B19" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="I19" s="11"/>
+      <c r="J19" s="11"/>
+      <c r="V19" s="8"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="12"/>
+      <c r="B20" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="I20" s="11"/>
+      <c r="J20" s="11"/>
+      <c r="V20" s="8"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="12"/>
+      <c r="B21" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="I21" s="11"/>
+      <c r="J21" s="11"/>
+      <c r="V21" s="8"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="12"/>
+      <c r="B22" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="I22" s="11"/>
+      <c r="J22" s="11"/>
+      <c r="V22" s="8"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="12"/>
+      <c r="B23" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="I23" s="11"/>
+      <c r="J23" s="11"/>
+      <c r="V23" s="8"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="12"/>
+      <c r="B24" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="I24" s="11"/>
+      <c r="J24" s="11"/>
+      <c r="V24" s="8"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="12"/>
+      <c r="B25" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="I25" s="11"/>
+      <c r="J25" s="11"/>
+      <c r="V25" s="8"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="12"/>
+      <c r="B26" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="I26" s="11"/>
+      <c r="J26" s="11"/>
+      <c r="V26" s="8"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="12"/>
+      <c r="B27" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="I27" s="11"/>
+      <c r="J27" s="11"/>
+      <c r="V27" s="8"/>
+    </row>
+    <row r="28">
+      <c r="A28" s="12"/>
+      <c r="B28" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="I28" s="11"/>
+      <c r="J28" s="11"/>
+      <c r="V28" s="8"/>
+    </row>
+    <row r="29">
+      <c r="A29" s="12"/>
+      <c r="B29" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="I29" s="11"/>
+      <c r="J29" s="11"/>
+      <c r="V29" s="8"/>
+    </row>
+    <row r="30">
+      <c r="A30" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="B30" s="10"/>
+      <c r="J30" s="11"/>
+      <c r="K30" s="11"/>
+      <c r="V30" s="8"/>
+    </row>
+    <row r="31">
+      <c r="A31" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="B31" s="10"/>
+      <c r="K31" s="11"/>
+      <c r="V31" s="8"/>
+    </row>
+    <row r="32">
+      <c r="A32" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="B32" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="K32" s="11"/>
+      <c r="L32" s="11"/>
+      <c r="V32" s="8"/>
+    </row>
+    <row r="33">
+      <c r="A33" s="12"/>
+      <c r="B33" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="K33" s="11"/>
+      <c r="L33" s="11"/>
+      <c r="V33" s="8"/>
+    </row>
+    <row r="34">
+      <c r="A34" s="12"/>
+      <c r="B34" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="K34" s="11"/>
+      <c r="L34" s="11"/>
+      <c r="V34" s="8"/>
+    </row>
+    <row r="35">
+      <c r="A35" s="12"/>
+      <c r="B35" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="K35" s="11"/>
+      <c r="L35" s="11"/>
+      <c r="V35" s="8"/>
+    </row>
+    <row r="36">
+      <c r="A36" s="12"/>
+      <c r="B36" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="K36" s="11"/>
+      <c r="L36" s="11"/>
+      <c r="V36" s="8"/>
+    </row>
+    <row r="37">
+      <c r="A37" s="12"/>
+      <c r="B37" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="K37" s="11"/>
+      <c r="L37" s="11"/>
+      <c r="V37" s="8"/>
+    </row>
+    <row r="38">
+      <c r="A38" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="B38" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="I38" s="11"/>
+      <c r="J38" s="11"/>
+      <c r="V38" s="8"/>
+    </row>
+    <row r="39">
+      <c r="A39" s="12"/>
+      <c r="B39" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="I39" s="11"/>
+      <c r="J39" s="11"/>
+      <c r="V39" s="8"/>
+    </row>
+    <row r="40">
+      <c r="A40" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="B40" s="10"/>
+      <c r="L40" s="11"/>
+      <c r="M40" s="11"/>
+      <c r="V40" s="8"/>
+    </row>
+    <row r="41">
+      <c r="A41" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="B41" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="K41" s="11"/>
+      <c r="L41" s="11"/>
+      <c r="V41" s="8"/>
+    </row>
+    <row r="42">
+      <c r="A42" s="12"/>
+      <c r="B42" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="K42" s="11"/>
+      <c r="L42" s="11"/>
+      <c r="V42" s="8"/>
+    </row>
+    <row r="43">
+      <c r="A43" s="12"/>
+      <c r="B43" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="K43" s="11"/>
+      <c r="L43" s="11"/>
+      <c r="V43" s="8"/>
+    </row>
+    <row r="44">
+      <c r="A44" s="12"/>
+      <c r="B44" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="K44" s="11"/>
+      <c r="L44" s="11"/>
+      <c r="V44" s="8"/>
+    </row>
+    <row r="45">
+      <c r="A45" s="12"/>
+      <c r="B45" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="K45" s="11"/>
+      <c r="L45" s="11"/>
+      <c r="V45" s="8"/>
+    </row>
+    <row r="46">
+      <c r="A46" s="12"/>
+      <c r="B46" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="V46" s="8"/>
+      <c r="X46" s="15"/>
+    </row>
+    <row r="47">
+      <c r="A47" s="12"/>
+      <c r="B47" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="V47" s="8"/>
+      <c r="X47" s="15"/>
+    </row>
+    <row r="48">
+      <c r="A48" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="B48" s="10"/>
+      <c r="M48" s="11"/>
+      <c r="N48" s="11"/>
+      <c r="V48" s="8"/>
+    </row>
+    <row r="49">
+      <c r="A49" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="B49" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="M49" s="11"/>
+      <c r="N49" s="11"/>
+      <c r="O49" s="11"/>
+      <c r="V49" s="8"/>
+    </row>
+    <row r="50">
+      <c r="A50" s="12"/>
+      <c r="B50" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="M50" s="11"/>
+      <c r="N50" s="11"/>
+      <c r="O50" s="11"/>
+      <c r="V50" s="8"/>
+    </row>
+    <row r="51">
+      <c r="A51" s="12"/>
+      <c r="B51" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="M51" s="11"/>
+      <c r="N51" s="11"/>
+      <c r="O51" s="11"/>
+      <c r="V51" s="8"/>
+    </row>
+    <row r="52">
+      <c r="A52" s="12"/>
+      <c r="B52" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="M52" s="11"/>
+      <c r="N52" s="11"/>
+      <c r="O52" s="11"/>
+      <c r="V52" s="8"/>
+    </row>
+    <row r="53">
+      <c r="A53" s="12"/>
+      <c r="B53" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="M53" s="11"/>
+      <c r="N53" s="11"/>
+      <c r="O53" s="11"/>
+      <c r="V53" s="8"/>
+    </row>
+    <row r="54">
+      <c r="A54" s="12"/>
+      <c r="B54" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="M54" s="11"/>
+      <c r="N54" s="11"/>
+      <c r="O54" s="11"/>
+      <c r="V54" s="8"/>
+    </row>
+    <row r="55">
+      <c r="A55" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="B55" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="N55" s="11"/>
+      <c r="O55" s="11"/>
+      <c r="V55" s="8"/>
+    </row>
+    <row r="56">
+      <c r="A56" s="9"/>
+      <c r="B56" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="N56" s="11"/>
+      <c r="O56" s="11"/>
+      <c r="V56" s="8"/>
+    </row>
+    <row r="57">
+      <c r="A57" s="9"/>
+      <c r="B57" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="N57" s="11"/>
+      <c r="O57" s="11"/>
+      <c r="V57" s="8"/>
+    </row>
+    <row r="58">
+      <c r="A58" s="9"/>
+      <c r="B58" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="N58" s="11"/>
+      <c r="O58" s="11"/>
+      <c r="V58" s="8"/>
+    </row>
+    <row r="59">
+      <c r="A59" s="9"/>
+      <c r="B59" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="N59" s="11"/>
+      <c r="O59" s="11"/>
+      <c r="V59" s="8"/>
+    </row>
+    <row r="60">
+      <c r="A60" s="9"/>
+      <c r="B60" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="N60" s="11"/>
+      <c r="O60" s="11"/>
+      <c r="V60" s="8"/>
+    </row>
+    <row r="61">
+      <c r="A61" s="9"/>
+      <c r="B61" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="N61" s="11"/>
+      <c r="O61" s="11"/>
+      <c r="V61" s="8"/>
+    </row>
+    <row r="62">
+      <c r="A62" s="18" t="s">
+        <v>131</v>
+      </c>
+      <c r="B62" s="19"/>
+      <c r="N62" s="11"/>
+      <c r="O62" s="11"/>
+      <c r="V62" s="8"/>
+    </row>
+    <row r="63">
+      <c r="A63" s="18" t="s">
+        <v>63</v>
+      </c>
+      <c r="B63" s="19"/>
+      <c r="N63" s="11"/>
+      <c r="O63" s="11"/>
+      <c r="V63" s="8"/>
+    </row>
+    <row r="64">
+      <c r="A64" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="B64" s="19"/>
+      <c r="O64" s="11"/>
+      <c r="V64" s="8"/>
+    </row>
+    <row r="65">
+      <c r="A65" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="B65" s="19"/>
+      <c r="P65" s="11"/>
+      <c r="Q65" s="11"/>
+      <c r="V65" s="8"/>
+    </row>
+    <row r="66">
+      <c r="A66" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="B66" s="19"/>
+      <c r="Q66" s="11"/>
+      <c r="R66" s="11"/>
+      <c r="V66" s="8"/>
+    </row>
+    <row r="67">
+      <c r="A67" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="B67" s="19"/>
+      <c r="R67" s="11"/>
+      <c r="S67" s="11"/>
+      <c r="V67" s="8"/>
+    </row>
+    <row r="68">
+      <c r="A68" s="18" t="s">
+        <v>67</v>
+      </c>
+      <c r="B68" s="19"/>
+      <c r="S68" s="11"/>
+      <c r="V68" s="8"/>
+    </row>
+    <row r="69">
+      <c r="A69" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="B69" s="19"/>
+      <c r="T69" s="14"/>
+      <c r="U69" s="14"/>
+      <c r="V69" s="8"/>
+      <c r="W69" s="15"/>
+    </row>
+    <row r="70">
+      <c r="A70" s="18" t="s">
+        <v>69</v>
+      </c>
+      <c r="B70" s="19"/>
+      <c r="T70" s="11"/>
+      <c r="U70" s="11"/>
+      <c r="V70" s="8"/>
+    </row>
+    <row r="71">
+      <c r="A71" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="B71" s="19"/>
+      <c r="T71" s="11"/>
+      <c r="U71" s="11"/>
+      <c r="V71" s="8"/>
+    </row>
+    <row r="72">
+      <c r="A72" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="B72" s="19"/>
+      <c r="T72" s="11"/>
+      <c r="U72" s="11"/>
+      <c r="V72" s="8"/>
+    </row>
+    <row r="73">
+      <c r="A73" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="B73" s="19"/>
+      <c r="U73" s="11"/>
+      <c r="V73" s="8"/>
+    </row>
+    <row r="74">
+      <c r="A74" s="18" t="s">
+        <v>73</v>
+      </c>
+      <c r="B74" s="19"/>
+      <c r="U74" s="14"/>
+      <c r="V74" s="8"/>
+      <c r="W74" s="15"/>
+    </row>
+    <row r="75">
+      <c r="A75" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="B75" s="19"/>
+      <c r="V75" s="8"/>
+      <c r="W75" s="14"/>
+      <c r="X75" s="15"/>
+    </row>
+    <row r="76">
+      <c r="A76" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="B76" s="19"/>
+      <c r="V76" s="8"/>
+      <c r="W76" s="14"/>
+      <c r="X76" s="15"/>
+    </row>
+    <row r="77">
+      <c r="A77" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="B77" s="19"/>
+      <c r="V77" s="8"/>
+      <c r="W77" s="14"/>
+      <c r="X77" s="15"/>
+    </row>
+    <row r="78">
+      <c r="A78" s="18" t="s">
+        <v>77</v>
+      </c>
+      <c r="B78" s="19"/>
+      <c r="V78" s="8"/>
+      <c r="X78" s="15"/>
+    </row>
+    <row r="79">
+      <c r="A79" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="B79" s="19"/>
+      <c r="V79" s="8"/>
+      <c r="X79" s="15"/>
+    </row>
+    <row r="80">
+      <c r="A80" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="B80" s="24" t="s">
+        <v>107</v>
+      </c>
+      <c r="V80" s="8"/>
+      <c r="X80" s="15"/>
+    </row>
+    <row r="81">
+      <c r="A81" s="12"/>
+      <c r="B81" s="24" t="s">
+        <v>108</v>
+      </c>
+      <c r="V81" s="8"/>
+      <c r="X81" s="11"/>
+    </row>
+    <row r="82">
+      <c r="A82" s="12"/>
+      <c r="B82" s="24" t="s">
+        <v>109</v>
+      </c>
+      <c r="V82" s="8"/>
+      <c r="X82" s="11"/>
+    </row>
+    <row r="83">
+      <c r="A83" s="12"/>
+      <c r="B83" s="24" t="s">
+        <v>133</v>
+      </c>
+      <c r="V83" s="8"/>
+      <c r="X83" s="15"/>
+    </row>
+    <row r="84">
+      <c r="A84" s="12"/>
+      <c r="B84" s="24" t="s">
+        <v>111</v>
+      </c>
+      <c r="V84" s="8"/>
+      <c r="X84" s="11"/>
+    </row>
+    <row r="85">
+      <c r="A85" s="12"/>
+      <c r="B85" s="24" t="s">
+        <v>134</v>
+      </c>
+      <c r="V85" s="8"/>
+      <c r="X85" s="11"/>
+    </row>
+    <row r="86">
+      <c r="A86" s="12"/>
+      <c r="B86" s="24" t="s">
+        <v>135</v>
+      </c>
+      <c r="V86" s="8"/>
+      <c r="X86" s="15"/>
+    </row>
+    <row r="87">
+      <c r="A87" s="12"/>
+      <c r="B87" s="24" t="s">
+        <v>136</v>
+      </c>
+      <c r="V87" s="8"/>
+      <c r="X87" s="15"/>
+    </row>
+    <row r="88">
+      <c r="A88" s="12"/>
+      <c r="B88" s="24" t="s">
+        <v>115</v>
+      </c>
+      <c r="V88" s="8"/>
+      <c r="X88" s="15"/>
+    </row>
+    <row r="89">
+      <c r="A89" s="12"/>
+      <c r="B89" s="24" t="s">
+        <v>137</v>
+      </c>
+      <c r="V89" s="8"/>
+      <c r="X89" s="11"/>
+    </row>
+    <row r="90">
+      <c r="A90" s="12"/>
+      <c r="B90" s="24" t="s">
+        <v>138</v>
+      </c>
+      <c r="V90" s="8"/>
+      <c r="X90" s="11"/>
+    </row>
+    <row r="91">
+      <c r="A91" s="12"/>
+      <c r="B91" s="24" t="s">
+        <v>139</v>
+      </c>
+      <c r="V91" s="8"/>
+      <c r="X91" s="15"/>
+    </row>
+    <row r="92">
+      <c r="A92" s="12"/>
+      <c r="B92" s="24" t="s">
+        <v>140</v>
+      </c>
+      <c r="V92" s="8"/>
+      <c r="X92" s="15"/>
+    </row>
+    <row r="93">
+      <c r="A93" s="12"/>
+      <c r="B93" s="24" t="s">
+        <v>141</v>
+      </c>
+      <c r="V93" s="8"/>
+      <c r="X93" s="15"/>
+    </row>
+    <row r="94">
+      <c r="A94" s="12"/>
+      <c r="B94" s="24" t="s">
+        <v>121</v>
+      </c>
+      <c r="V94" s="8"/>
+      <c r="X94" s="11"/>
+    </row>
+    <row r="95">
+      <c r="A95" s="12"/>
+      <c r="B95" s="24" t="s">
+        <v>122</v>
+      </c>
+      <c r="V95" s="8"/>
+      <c r="X95" s="15"/>
+    </row>
+    <row r="96">
+      <c r="A96" s="12"/>
+      <c r="B96" s="24" t="s">
+        <v>123</v>
+      </c>
+      <c r="V96" s="8"/>
+      <c r="X96" s="11"/>
+    </row>
+    <row r="97">
+      <c r="A97" s="12"/>
+      <c r="B97" s="24" t="s">
+        <v>124</v>
+      </c>
+      <c r="V97" s="8"/>
+      <c r="X97" s="15"/>
+    </row>
+    <row r="98">
+      <c r="A98" s="12"/>
+      <c r="B98" s="24" t="s">
+        <v>125</v>
+      </c>
+      <c r="V98" s="8"/>
+      <c r="X98" s="15"/>
+    </row>
+    <row r="99">
+      <c r="A99" s="12"/>
+      <c r="B99" s="24" t="s">
+        <v>142</v>
+      </c>
+      <c r="V99" s="8"/>
+      <c r="X99" s="15"/>
+    </row>
+    <row r="100">
+      <c r="A100" s="12"/>
+      <c r="B100" s="24" t="s">
+        <v>143</v>
+      </c>
+      <c r="V100" s="8"/>
+      <c r="X100" s="15"/>
+    </row>
+    <row r="101">
+      <c r="A101" s="12"/>
+      <c r="B101" s="24" t="s">
+        <v>144</v>
+      </c>
+      <c r="V101" s="8"/>
+      <c r="X101" s="15"/>
+    </row>
+    <row r="102">
+      <c r="A102" s="12"/>
+      <c r="B102" s="24" t="s">
+        <v>129</v>
+      </c>
+      <c r="V102" s="8"/>
+      <c r="X102" s="11"/>
+    </row>
+    <row r="103">
+      <c r="A103" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="V103" s="8"/>
+    </row>
+    <row r="104">
+      <c r="A104" s="20" t="s">
+        <v>80</v>
+      </c>
+      <c r="B104" s="11"/>
+      <c r="V104" s="8"/>
+    </row>
+    <row r="105">
+      <c r="A105" s="20" t="s">
+        <v>81</v>
+      </c>
+      <c r="B105" s="14"/>
+      <c r="V105" s="8"/>
+    </row>
+    <row r="106">
+      <c r="A106" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="B106" s="15"/>
+      <c r="V106" s="8"/>
+    </row>
+    <row r="107">
+      <c r="A107" s="20" t="s">
+        <v>83</v>
+      </c>
+      <c r="B107" s="21"/>
+      <c r="V107" s="8"/>
+    </row>
+    <row r="108">
+      <c r="A108" s="20" t="s">
+        <v>84</v>
+      </c>
+      <c r="B108" s="22"/>
+      <c r="V108" s="8"/>
+    </row>
+    <row r="109">
+      <c r="A109" s="23" t="s">
+        <v>85</v>
+      </c>
+      <c r="B109" s="8"/>
+      <c r="V109" s="8"/>
+    </row>
+    <row r="110">
+      <c r="A110" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="B110" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="V110" s="8"/>
+    </row>
+    <row r="111">
+      <c r="V111" s="8"/>
+    </row>
+    <row r="112">
+      <c r="V112" s="8"/>
+    </row>
+    <row r="113">
+      <c r="V113" s="8"/>
+    </row>
+    <row r="114">
+      <c r="V114" s="8"/>
+    </row>
+    <row r="115">
+      <c r="V115" s="8"/>
+    </row>
+    <row r="116">
+      <c r="V116" s="8"/>
+    </row>
+    <row r="117">
+      <c r="V117" s="8"/>
+    </row>
+    <row r="118">
+      <c r="V118" s="8"/>
+    </row>
+    <row r="119">
+      <c r="V119" s="8"/>
+    </row>
+    <row r="120">
+      <c r="V120" s="8"/>
+    </row>
+    <row r="121">
+      <c r="V121" s="8"/>
+    </row>
+    <row r="122">
+      <c r="V122" s="8"/>
+    </row>
+    <row r="123">
+      <c r="V123" s="8"/>
+    </row>
+    <row r="124">
+      <c r="V124" s="8"/>
+    </row>
+    <row r="125">
+      <c r="V125" s="8"/>
+    </row>
+    <row r="126">
+      <c r="V126" s="8"/>
+    </row>
+    <row r="127">
+      <c r="V127" s="8"/>
+    </row>
+    <row r="128">
+      <c r="V128" s="8"/>
+    </row>
+    <row r="129">
+      <c r="V129" s="8"/>
+    </row>
+    <row r="130">
+      <c r="V130" s="8"/>
+    </row>
+    <row r="131">
+      <c r="V131" s="8"/>
+    </row>
+    <row r="132">
+      <c r="V132" s="8"/>
+    </row>
+    <row r="133">
+      <c r="V133" s="8"/>
+    </row>
+    <row r="134">
+      <c r="V134" s="8"/>
+    </row>
+    <row r="135">
+      <c r="V135" s="8"/>
+    </row>
+    <row r="136">
+      <c r="V136" s="8"/>
+    </row>
+    <row r="137">
+      <c r="V137" s="8"/>
+    </row>
+    <row r="138">
+      <c r="V138" s="8"/>
+    </row>
+    <row r="139">
+      <c r="V139" s="8"/>
+    </row>
+    <row r="140">
+      <c r="V140" s="8"/>
+    </row>
+    <row r="141">
+      <c r="V141" s="8"/>
+    </row>
+    <row r="142">
+      <c r="V142" s="8"/>
+    </row>
+    <row r="143">
+      <c r="V143" s="8"/>
+    </row>
+    <row r="144">
+      <c r="V144" s="8"/>
+    </row>
+    <row r="145">
+      <c r="V145" s="8"/>
+    </row>
+    <row r="146">
+      <c r="V146" s="8"/>
+    </row>
+    <row r="147">
+      <c r="V147" s="8"/>
+    </row>
+    <row r="148">
+      <c r="V148" s="8"/>
+    </row>
+    <row r="149">
+      <c r="V149" s="8"/>
+    </row>
+    <row r="150">
+      <c r="V150" s="8"/>
+    </row>
+    <row r="151">
+      <c r="V151" s="8"/>
+    </row>
+    <row r="152">
+      <c r="V152" s="8"/>
+    </row>
+    <row r="153">
+      <c r="V153" s="8"/>
+    </row>
+    <row r="154">
+      <c r="V154" s="8"/>
+    </row>
+    <row r="155">
+      <c r="V155" s="8"/>
+    </row>
+    <row r="156">
+      <c r="V156" s="8"/>
+    </row>
+    <row r="157">
+      <c r="V157" s="8"/>
+    </row>
+    <row r="158">
+      <c r="V158" s="8"/>
+    </row>
+    <row r="159">
+      <c r="V159" s="8"/>
+    </row>
+    <row r="160">
+      <c r="V160" s="8"/>
+    </row>
+    <row r="161">
+      <c r="V161" s="8"/>
+    </row>
+    <row r="162">
+      <c r="V162" s="8"/>
+    </row>
+    <row r="163">
+      <c r="V163" s="8"/>
+    </row>
+    <row r="164">
+      <c r="V164" s="8"/>
+    </row>
+    <row r="165">
+      <c r="V165" s="8"/>
+    </row>
+    <row r="166">
+      <c r="V166" s="8"/>
+    </row>
+    <row r="167">
+      <c r="V167" s="8"/>
+    </row>
+    <row r="168">
+      <c r="V168" s="8"/>
+    </row>
+    <row r="169">
+      <c r="V169" s="8"/>
+    </row>
+    <row r="170">
+      <c r="V170" s="8"/>
+    </row>
+    <row r="171">
+      <c r="V171" s="8"/>
+    </row>
+    <row r="172">
+      <c r="V172" s="8"/>
+    </row>
+    <row r="173">
+      <c r="V173" s="8"/>
+    </row>
+    <row r="174">
+      <c r="V174" s="8"/>
+    </row>
+    <row r="175">
+      <c r="V175" s="8"/>
+    </row>
+    <row r="176">
+      <c r="V176" s="8"/>
+    </row>
+    <row r="177">
+      <c r="V177" s="8"/>
+    </row>
+    <row r="178">
+      <c r="V178" s="8"/>
+    </row>
+    <row r="179">
+      <c r="V179" s="8"/>
+    </row>
+    <row r="180">
+      <c r="V180" s="8"/>
+    </row>
+    <row r="181">
+      <c r="V181" s="8"/>
+    </row>
+    <row r="182">
+      <c r="V182" s="8"/>
+    </row>
+    <row r="183">
+      <c r="V183" s="8"/>
+    </row>
+    <row r="184">
+      <c r="V184" s="8"/>
+    </row>
+    <row r="185">
+      <c r="V185" s="8"/>
+    </row>
+    <row r="186">
+      <c r="V186" s="8"/>
+    </row>
+    <row r="187">
+      <c r="V187" s="8"/>
+    </row>
+    <row r="188">
+      <c r="V188" s="8"/>
+    </row>
+    <row r="189">
+      <c r="V189" s="8"/>
+    </row>
+    <row r="190">
+      <c r="V190" s="8"/>
+    </row>
+    <row r="191">
+      <c r="V191" s="8"/>
+    </row>
+    <row r="192">
+      <c r="V192" s="8"/>
+    </row>
+    <row r="193">
+      <c r="V193" s="8"/>
+    </row>
+    <row r="194">
+      <c r="V194" s="8"/>
+    </row>
+    <row r="195">
+      <c r="V195" s="8"/>
+    </row>
+    <row r="196">
+      <c r="V196" s="8"/>
+    </row>
+    <row r="197">
+      <c r="V197" s="8"/>
+    </row>
+    <row r="198">
+      <c r="V198" s="8"/>
+    </row>
+    <row r="199">
+      <c r="V199" s="8"/>
+    </row>
+    <row r="200">
+      <c r="V200" s="8"/>
+    </row>
+    <row r="201">
+      <c r="V201" s="8"/>
+    </row>
+    <row r="202">
+      <c r="V202" s="8"/>
+    </row>
+    <row r="203">
+      <c r="V203" s="8"/>
+    </row>
+    <row r="204">
+      <c r="V204" s="8"/>
+    </row>
+    <row r="205">
+      <c r="V205" s="8"/>
+    </row>
+    <row r="206">
+      <c r="V206" s="8"/>
+    </row>
+    <row r="207">
+      <c r="V207" s="8"/>
+    </row>
+    <row r="208">
+      <c r="V208" s="8"/>
+    </row>
+    <row r="209">
+      <c r="V209" s="8"/>
+    </row>
+    <row r="210">
+      <c r="V210" s="8"/>
+    </row>
+    <row r="211">
+      <c r="V211" s="8"/>
+    </row>
+    <row r="212">
+      <c r="V212" s="8"/>
+    </row>
+    <row r="213">
+      <c r="V213" s="8"/>
+    </row>
+    <row r="214">
+      <c r="V214" s="8"/>
+    </row>
+    <row r="215">
+      <c r="V215" s="8"/>
+    </row>
+    <row r="216">
+      <c r="V216" s="8"/>
+    </row>
+    <row r="217">
+      <c r="V217" s="8"/>
+    </row>
+    <row r="218">
+      <c r="V218" s="8"/>
+    </row>
+    <row r="219">
+      <c r="V219" s="8"/>
+    </row>
+    <row r="220">
+      <c r="V220" s="8"/>
+    </row>
+    <row r="221">
+      <c r="V221" s="8"/>
+    </row>
+    <row r="222">
+      <c r="V222" s="8"/>
+    </row>
+    <row r="223">
+      <c r="V223" s="8"/>
+    </row>
+    <row r="224">
+      <c r="V224" s="8"/>
+    </row>
+    <row r="225">
+      <c r="V225" s="8"/>
+    </row>
+    <row r="226">
+      <c r="V226" s="8"/>
+    </row>
+    <row r="227">
+      <c r="V227" s="8"/>
+    </row>
+    <row r="228">
+      <c r="V228" s="8"/>
+    </row>
+    <row r="229">
+      <c r="V229" s="8"/>
+    </row>
+    <row r="230">
+      <c r="V230" s="8"/>
+    </row>
+    <row r="231">
+      <c r="V231" s="8"/>
+    </row>
+    <row r="232">
+      <c r="V232" s="8"/>
+    </row>
+    <row r="233">
+      <c r="V233" s="8"/>
+    </row>
+    <row r="234">
+      <c r="V234" s="8"/>
+    </row>
+    <row r="235">
+      <c r="V235" s="8"/>
+    </row>
+    <row r="236">
+      <c r="V236" s="8"/>
+    </row>
+    <row r="237">
+      <c r="V237" s="8"/>
+    </row>
+    <row r="238">
+      <c r="V238" s="8"/>
+    </row>
+    <row r="239">
+      <c r="V239" s="8"/>
+    </row>
+    <row r="240">
+      <c r="V240" s="8"/>
+    </row>
+    <row r="241">
+      <c r="V241" s="8"/>
+    </row>
+    <row r="242">
+      <c r="V242" s="8"/>
+    </row>
+    <row r="243">
+      <c r="V243" s="8"/>
+    </row>
+    <row r="244">
+      <c r="V244" s="8"/>
+    </row>
+    <row r="245">
+      <c r="V245" s="8"/>
+    </row>
+    <row r="246">
+      <c r="V246" s="8"/>
+    </row>
+    <row r="247">
+      <c r="V247" s="8"/>
+    </row>
+    <row r="248">
+      <c r="V248" s="8"/>
+    </row>
+    <row r="249">
+      <c r="V249" s="8"/>
+    </row>
+    <row r="250">
+      <c r="V250" s="8"/>
+    </row>
+    <row r="251">
+      <c r="V251" s="8"/>
+    </row>
+    <row r="252">
+      <c r="V252" s="8"/>
+    </row>
+    <row r="253">
+      <c r="V253" s="8"/>
+    </row>
+    <row r="254">
+      <c r="V254" s="8"/>
+    </row>
+    <row r="255">
+      <c r="V255" s="8"/>
+    </row>
+    <row r="256">
+      <c r="V256" s="8"/>
+    </row>
+    <row r="257">
+      <c r="V257" s="8"/>
+    </row>
+    <row r="258">
+      <c r="V258" s="8"/>
+    </row>
+    <row r="259">
+      <c r="V259" s="8"/>
+    </row>
+    <row r="260">
+      <c r="V260" s="8"/>
+    </row>
+    <row r="261">
+      <c r="V261" s="8"/>
+    </row>
+    <row r="262">
+      <c r="V262" s="8"/>
+    </row>
+    <row r="263">
+      <c r="V263" s="8"/>
+    </row>
+    <row r="264">
+      <c r="V264" s="8"/>
+    </row>
+    <row r="265">
+      <c r="V265" s="8"/>
+    </row>
+    <row r="266">
+      <c r="V266" s="8"/>
+    </row>
+    <row r="267">
+      <c r="V267" s="8"/>
+    </row>
+    <row r="268">
+      <c r="V268" s="8"/>
+    </row>
+    <row r="269">
+      <c r="V269" s="8"/>
+    </row>
+    <row r="270">
+      <c r="V270" s="8"/>
+    </row>
+    <row r="271">
+      <c r="V271" s="8"/>
+    </row>
+    <row r="272">
+      <c r="V272" s="8"/>
+    </row>
+    <row r="273">
+      <c r="V273" s="8"/>
+    </row>
+    <row r="274">
+      <c r="V274" s="8"/>
+    </row>
+    <row r="275">
+      <c r="V275" s="8"/>
+    </row>
+    <row r="276">
+      <c r="V276" s="8"/>
+    </row>
+    <row r="277">
+      <c r="V277" s="8"/>
+    </row>
+    <row r="278">
+      <c r="V278" s="8"/>
+    </row>
+    <row r="279">
+      <c r="V279" s="8"/>
+    </row>
+    <row r="280">
+      <c r="V280" s="8"/>
+    </row>
+    <row r="281">
+      <c r="V281" s="8"/>
+    </row>
+    <row r="282">
+      <c r="V282" s="8"/>
+    </row>
+    <row r="283">
+      <c r="V283" s="8"/>
+    </row>
+    <row r="284">
+      <c r="V284" s="8"/>
+    </row>
+    <row r="285">
+      <c r="V285" s="8"/>
+    </row>
+    <row r="286">
+      <c r="V286" s="8"/>
+    </row>
+    <row r="287">
+      <c r="V287" s="8"/>
+    </row>
+    <row r="288">
+      <c r="V288" s="8"/>
+    </row>
+    <row r="289">
+      <c r="V289" s="8"/>
+    </row>
+    <row r="290">
+      <c r="V290" s="8"/>
+    </row>
+    <row r="291">
+      <c r="V291" s="8"/>
+    </row>
+    <row r="292">
+      <c r="V292" s="8"/>
+    </row>
+    <row r="293">
+      <c r="V293" s="8"/>
+    </row>
+    <row r="294">
+      <c r="V294" s="8"/>
+    </row>
+    <row r="295">
+      <c r="V295" s="8"/>
+    </row>
+    <row r="296">
+      <c r="V296" s="8"/>
+    </row>
+    <row r="297">
+      <c r="V297" s="8"/>
+    </row>
+    <row r="298">
+      <c r="V298" s="8"/>
+    </row>
+    <row r="299">
+      <c r="V299" s="8"/>
+    </row>
+    <row r="300">
+      <c r="V300" s="8"/>
+    </row>
+    <row r="301">
+      <c r="V301" s="8"/>
+    </row>
+    <row r="302">
+      <c r="V302" s="8"/>
+    </row>
+    <row r="303">
+      <c r="V303" s="8"/>
+    </row>
+    <row r="304">
+      <c r="V304" s="8"/>
+    </row>
+    <row r="305">
+      <c r="V305" s="8"/>
+    </row>
+    <row r="306">
+      <c r="V306" s="8"/>
+    </row>
+    <row r="307">
+      <c r="V307" s="8"/>
+    </row>
+    <row r="308">
+      <c r="V308" s="8"/>
+    </row>
+    <row r="309">
+      <c r="V309" s="8"/>
+    </row>
+    <row r="310">
+      <c r="V310" s="8"/>
+    </row>
+    <row r="311">
+      <c r="V311" s="8"/>
+    </row>
+    <row r="312">
+      <c r="V312" s="8"/>
+    </row>
+    <row r="313">
+      <c r="V313" s="8"/>
+    </row>
+    <row r="314">
+      <c r="V314" s="8"/>
+    </row>
+    <row r="315">
+      <c r="V315" s="8"/>
+    </row>
+    <row r="316">
+      <c r="V316" s="8"/>
+    </row>
+    <row r="317">
+      <c r="V317" s="8"/>
+    </row>
+    <row r="318">
+      <c r="V318" s="8"/>
+    </row>
+    <row r="319">
+      <c r="V319" s="8"/>
+    </row>
+    <row r="320">
+      <c r="V320" s="8"/>
+    </row>
+    <row r="321">
+      <c r="V321" s="8"/>
+    </row>
+    <row r="322">
+      <c r="V322" s="8"/>
+    </row>
+    <row r="323">
+      <c r="V323" s="8"/>
+    </row>
+    <row r="324">
+      <c r="V324" s="8"/>
+    </row>
+    <row r="325">
+      <c r="V325" s="8"/>
+    </row>
+    <row r="326">
+      <c r="V326" s="8"/>
+    </row>
+    <row r="327">
+      <c r="V327" s="8"/>
+    </row>
+    <row r="328">
+      <c r="V328" s="8"/>
+    </row>
+    <row r="329">
+      <c r="V329" s="8"/>
+    </row>
+    <row r="330">
+      <c r="V330" s="8"/>
+    </row>
+    <row r="331">
+      <c r="V331" s="8"/>
+    </row>
+    <row r="332">
+      <c r="V332" s="8"/>
+    </row>
+    <row r="333">
+      <c r="V333" s="8"/>
+    </row>
+    <row r="334">
+      <c r="V334" s="8"/>
+    </row>
+    <row r="335">
+      <c r="V335" s="8"/>
+    </row>
+    <row r="336">
+      <c r="V336" s="8"/>
+    </row>
+    <row r="337">
+      <c r="V337" s="8"/>
+    </row>
+    <row r="338">
+      <c r="V338" s="8"/>
+    </row>
+    <row r="339">
+      <c r="V339" s="8"/>
+    </row>
+    <row r="340">
+      <c r="V340" s="8"/>
+    </row>
+    <row r="341">
+      <c r="V341" s="8"/>
+    </row>
+    <row r="342">
+      <c r="V342" s="8"/>
+    </row>
+    <row r="343">
+      <c r="V343" s="8"/>
+    </row>
+    <row r="344">
+      <c r="V344" s="8"/>
+    </row>
+    <row r="345">
+      <c r="V345" s="8"/>
+    </row>
+    <row r="346">
+      <c r="V346" s="8"/>
+    </row>
+    <row r="347">
+      <c r="V347" s="8"/>
+    </row>
+    <row r="348">
+      <c r="V348" s="8"/>
+    </row>
+    <row r="349">
+      <c r="V349" s="8"/>
+    </row>
+    <row r="350">
+      <c r="V350" s="8"/>
+    </row>
+    <row r="351">
+      <c r="V351" s="8"/>
+    </row>
+    <row r="352">
+      <c r="V352" s="8"/>
+    </row>
+    <row r="353">
+      <c r="V353" s="8"/>
+    </row>
+    <row r="354">
+      <c r="V354" s="8"/>
+    </row>
+    <row r="355">
+      <c r="V355" s="8"/>
+    </row>
+    <row r="356">
+      <c r="V356" s="8"/>
+    </row>
+    <row r="357">
+      <c r="V357" s="8"/>
+    </row>
+    <row r="358">
+      <c r="V358" s="8"/>
+    </row>
+    <row r="359">
+      <c r="V359" s="8"/>
+    </row>
+    <row r="360">
+      <c r="V360" s="8"/>
+    </row>
+    <row r="361">
+      <c r="V361" s="8"/>
+    </row>
+    <row r="362">
+      <c r="V362" s="8"/>
+    </row>
+    <row r="363">
+      <c r="V363" s="8"/>
+    </row>
+    <row r="364">
+      <c r="V364" s="8"/>
+    </row>
+    <row r="365">
+      <c r="V365" s="8"/>
+    </row>
+    <row r="366">
+      <c r="V366" s="8"/>
+    </row>
+    <row r="367">
+      <c r="V367" s="8"/>
+    </row>
+    <row r="368">
+      <c r="V368" s="8"/>
+    </row>
+    <row r="369">
+      <c r="V369" s="8"/>
+    </row>
+    <row r="370">
+      <c r="V370" s="8"/>
+    </row>
+    <row r="371">
+      <c r="V371" s="8"/>
+    </row>
+    <row r="372">
+      <c r="V372" s="8"/>
+    </row>
+    <row r="373">
+      <c r="V373" s="8"/>
+    </row>
+    <row r="374">
+      <c r="V374" s="8"/>
+    </row>
+    <row r="375">
+      <c r="V375" s="8"/>
+    </row>
+    <row r="376">
+      <c r="V376" s="8"/>
+    </row>
+    <row r="377">
+      <c r="V377" s="8"/>
+    </row>
+    <row r="378">
+      <c r="V378" s="8"/>
+    </row>
+    <row r="379">
+      <c r="V379" s="8"/>
+    </row>
+    <row r="380">
+      <c r="V380" s="8"/>
+    </row>
+    <row r="381">
+      <c r="V381" s="8"/>
+    </row>
+    <row r="382">
+      <c r="V382" s="8"/>
+    </row>
+    <row r="383">
+      <c r="V383" s="8"/>
+    </row>
+    <row r="384">
+      <c r="V384" s="8"/>
+    </row>
+    <row r="385">
+      <c r="V385" s="8"/>
+    </row>
+    <row r="386">
+      <c r="V386" s="8"/>
+    </row>
+    <row r="387">
+      <c r="V387" s="8"/>
+    </row>
+    <row r="388">
+      <c r="V388" s="8"/>
+    </row>
+    <row r="389">
+      <c r="V389" s="8"/>
+    </row>
+    <row r="390">
+      <c r="V390" s="8"/>
+    </row>
+    <row r="391">
+      <c r="V391" s="8"/>
+    </row>
+    <row r="392">
+      <c r="V392" s="8"/>
+    </row>
+    <row r="393">
+      <c r="V393" s="8"/>
+    </row>
+    <row r="394">
+      <c r="V394" s="8"/>
+    </row>
+    <row r="395">
+      <c r="V395" s="8"/>
+    </row>
+    <row r="396">
+      <c r="V396" s="8"/>
+    </row>
+    <row r="397">
+      <c r="V397" s="8"/>
+    </row>
+    <row r="398">
+      <c r="V398" s="8"/>
+    </row>
+    <row r="399">
+      <c r="V399" s="8"/>
+    </row>
+    <row r="400">
+      <c r="V400" s="8"/>
+    </row>
+    <row r="401">
+      <c r="V401" s="8"/>
+    </row>
+    <row r="402">
+      <c r="V402" s="8"/>
+    </row>
+    <row r="403">
+      <c r="V403" s="8"/>
+    </row>
+    <row r="404">
+      <c r="V404" s="8"/>
+    </row>
+    <row r="405">
+      <c r="V405" s="8"/>
+    </row>
+    <row r="406">
+      <c r="V406" s="8"/>
+    </row>
+    <row r="407">
+      <c r="V407" s="8"/>
+    </row>
+    <row r="408">
+      <c r="V408" s="8"/>
+    </row>
+    <row r="409">
+      <c r="V409" s="8"/>
+    </row>
+    <row r="410">
+      <c r="V410" s="8"/>
+    </row>
+    <row r="411">
+      <c r="V411" s="8"/>
+    </row>
+    <row r="412">
+      <c r="V412" s="8"/>
+    </row>
+    <row r="413">
+      <c r="V413" s="8"/>
+    </row>
+    <row r="414">
+      <c r="V414" s="8"/>
+    </row>
+    <row r="415">
+      <c r="V415" s="8"/>
+    </row>
+    <row r="416">
+      <c r="V416" s="8"/>
+    </row>
+    <row r="417">
+      <c r="V417" s="8"/>
+    </row>
+    <row r="418">
+      <c r="V418" s="8"/>
+    </row>
+    <row r="419">
+      <c r="V419" s="8"/>
+    </row>
+    <row r="420">
+      <c r="V420" s="8"/>
+    </row>
+    <row r="421">
+      <c r="V421" s="8"/>
+    </row>
+    <row r="422">
+      <c r="V422" s="8"/>
+    </row>
+    <row r="423">
+      <c r="V423" s="8"/>
+    </row>
+    <row r="424">
+      <c r="V424" s="8"/>
+    </row>
+    <row r="425">
+      <c r="V425" s="8"/>
+    </row>
+    <row r="426">
+      <c r="V426" s="8"/>
+    </row>
+    <row r="427">
+      <c r="V427" s="8"/>
+    </row>
+    <row r="428">
+      <c r="V428" s="8"/>
+    </row>
+    <row r="429">
+      <c r="V429" s="8"/>
+    </row>
+    <row r="430">
+      <c r="V430" s="8"/>
+    </row>
+    <row r="431">
+      <c r="V431" s="8"/>
+    </row>
+    <row r="432">
+      <c r="V432" s="8"/>
+    </row>
+    <row r="433">
+      <c r="V433" s="8"/>
+    </row>
+    <row r="434">
+      <c r="V434" s="8"/>
+    </row>
+    <row r="435">
+      <c r="V435" s="8"/>
+    </row>
+    <row r="436">
+      <c r="V436" s="8"/>
+    </row>
+    <row r="437">
+      <c r="V437" s="8"/>
+    </row>
+    <row r="438">
+      <c r="V438" s="8"/>
+    </row>
+    <row r="439">
+      <c r="V439" s="8"/>
+    </row>
+    <row r="440">
+      <c r="V440" s="8"/>
+    </row>
+    <row r="441">
+      <c r="V441" s="8"/>
+    </row>
+    <row r="442">
+      <c r="V442" s="8"/>
+    </row>
+    <row r="443">
+      <c r="V443" s="8"/>
+    </row>
+    <row r="444">
+      <c r="V444" s="8"/>
+    </row>
+    <row r="445">
+      <c r="V445" s="8"/>
+    </row>
+    <row r="446">
+      <c r="V446" s="8"/>
+    </row>
+    <row r="447">
+      <c r="V447" s="8"/>
+    </row>
+    <row r="448">
+      <c r="V448" s="8"/>
+    </row>
+    <row r="449">
+      <c r="V449" s="8"/>
+    </row>
+    <row r="450">
+      <c r="V450" s="8"/>
+    </row>
+    <row r="451">
+      <c r="V451" s="8"/>
+    </row>
+    <row r="452">
+      <c r="V452" s="8"/>
+    </row>
+    <row r="453">
+      <c r="V453" s="8"/>
+    </row>
+    <row r="454">
+      <c r="V454" s="8"/>
+    </row>
+    <row r="455">
+      <c r="V455" s="8"/>
+    </row>
+    <row r="456">
+      <c r="V456" s="8"/>
+    </row>
+    <row r="457">
+      <c r="V457" s="8"/>
+    </row>
+    <row r="458">
+      <c r="V458" s="8"/>
+    </row>
+    <row r="459">
+      <c r="V459" s="8"/>
+    </row>
+    <row r="460">
+      <c r="V460" s="8"/>
+    </row>
+    <row r="461">
+      <c r="V461" s="8"/>
+    </row>
+    <row r="462">
+      <c r="V462" s="8"/>
+    </row>
+    <row r="463">
+      <c r="V463" s="8"/>
+    </row>
+    <row r="464">
+      <c r="V464" s="8"/>
+    </row>
+    <row r="465">
+      <c r="V465" s="8"/>
+    </row>
+    <row r="466">
+      <c r="V466" s="8"/>
+    </row>
+    <row r="467">
+      <c r="V467" s="8"/>
+    </row>
+    <row r="468">
+      <c r="V468" s="8"/>
+    </row>
+    <row r="469">
+      <c r="V469" s="8"/>
+    </row>
+    <row r="470">
+      <c r="V470" s="8"/>
+    </row>
+    <row r="471">
+      <c r="V471" s="8"/>
+    </row>
+    <row r="472">
+      <c r="V472" s="8"/>
+    </row>
+    <row r="473">
+      <c r="V473" s="8"/>
+    </row>
+    <row r="474">
+      <c r="V474" s="8"/>
+    </row>
+    <row r="475">
+      <c r="V475" s="8"/>
+    </row>
+    <row r="476">
+      <c r="V476" s="8"/>
+    </row>
+    <row r="477">
+      <c r="V477" s="8"/>
+    </row>
+    <row r="478">
+      <c r="V478" s="8"/>
+    </row>
+    <row r="479">
+      <c r="V479" s="8"/>
+    </row>
+    <row r="480">
+      <c r="V480" s="8"/>
+    </row>
+    <row r="481">
+      <c r="V481" s="8"/>
+    </row>
+    <row r="482">
+      <c r="V482" s="8"/>
+    </row>
+    <row r="483">
+      <c r="V483" s="8"/>
+    </row>
+    <row r="484">
+      <c r="V484" s="8"/>
+    </row>
+    <row r="485">
+      <c r="V485" s="8"/>
+    </row>
+    <row r="486">
+      <c r="V486" s="8"/>
+    </row>
+    <row r="487">
+      <c r="V487" s="8"/>
+    </row>
+    <row r="488">
+      <c r="V488" s="8"/>
+    </row>
+    <row r="489">
+      <c r="V489" s="8"/>
+    </row>
+    <row r="490">
+      <c r="V490" s="8"/>
+    </row>
+    <row r="491">
+      <c r="V491" s="8"/>
+    </row>
+    <row r="492">
+      <c r="V492" s="8"/>
+    </row>
+    <row r="493">
+      <c r="V493" s="8"/>
+    </row>
+    <row r="494">
+      <c r="V494" s="8"/>
+    </row>
+    <row r="495">
+      <c r="V495" s="8"/>
+    </row>
+    <row r="496">
+      <c r="V496" s="8"/>
+    </row>
+    <row r="497">
+      <c r="V497" s="8"/>
+    </row>
+    <row r="498">
+      <c r="V498" s="8"/>
+    </row>
+    <row r="499">
+      <c r="V499" s="8"/>
+    </row>
+    <row r="500">
+      <c r="V500" s="8"/>
+    </row>
+    <row r="501">
+      <c r="V501" s="8"/>
+    </row>
+    <row r="502">
+      <c r="V502" s="8"/>
+    </row>
+    <row r="503">
+      <c r="V503" s="8"/>
+    </row>
+    <row r="504">
+      <c r="V504" s="8"/>
+    </row>
+    <row r="505">
+      <c r="V505" s="8"/>
+    </row>
+    <row r="506">
+      <c r="V506" s="8"/>
+    </row>
+    <row r="507">
+      <c r="V507" s="8"/>
+    </row>
+    <row r="508">
+      <c r="V508" s="8"/>
+    </row>
+    <row r="509">
+      <c r="V509" s="8"/>
+    </row>
+    <row r="510">
+      <c r="V510" s="8"/>
+    </row>
+    <row r="511">
+      <c r="V511" s="8"/>
+    </row>
+    <row r="512">
+      <c r="V512" s="8"/>
+    </row>
+    <row r="513">
+      <c r="V513" s="8"/>
+    </row>
+    <row r="514">
+      <c r="V514" s="8"/>
+    </row>
+    <row r="515">
+      <c r="V515" s="8"/>
+    </row>
+    <row r="516">
+      <c r="V516" s="8"/>
+    </row>
+    <row r="517">
+      <c r="V517" s="8"/>
+    </row>
+    <row r="518">
+      <c r="V518" s="8"/>
+    </row>
+    <row r="519">
+      <c r="V519" s="8"/>
+    </row>
+    <row r="520">
+      <c r="V520" s="8"/>
+    </row>
+    <row r="521">
+      <c r="V521" s="8"/>
+    </row>
+    <row r="522">
+      <c r="V522" s="8"/>
+    </row>
+    <row r="523">
+      <c r="V523" s="8"/>
+    </row>
+    <row r="524">
+      <c r="V524" s="8"/>
+    </row>
+    <row r="525">
+      <c r="V525" s="8"/>
+    </row>
+    <row r="526">
+      <c r="V526" s="8"/>
+    </row>
+    <row r="527">
+      <c r="V527" s="8"/>
+    </row>
+    <row r="528">
+      <c r="V528" s="8"/>
+    </row>
+    <row r="529">
+      <c r="V529" s="8"/>
+    </row>
+    <row r="530">
+      <c r="V530" s="8"/>
+    </row>
+    <row r="531">
+      <c r="V531" s="8"/>
+    </row>
+    <row r="532">
+      <c r="V532" s="8"/>
+    </row>
+    <row r="533">
+      <c r="V533" s="8"/>
+    </row>
+    <row r="534">
+      <c r="V534" s="8"/>
+    </row>
+    <row r="535">
+      <c r="V535" s="8"/>
+    </row>
+    <row r="536">
+      <c r="V536" s="8"/>
+    </row>
+    <row r="537">
+      <c r="V537" s="8"/>
+    </row>
+    <row r="538">
+      <c r="V538" s="8"/>
+    </row>
+    <row r="539">
+      <c r="V539" s="8"/>
+    </row>
+    <row r="540">
+      <c r="V540" s="8"/>
+    </row>
+    <row r="541">
+      <c r="V541" s="8"/>
+    </row>
+    <row r="542">
+      <c r="V542" s="8"/>
+    </row>
+    <row r="543">
+      <c r="V543" s="8"/>
+    </row>
+    <row r="544">
+      <c r="V544" s="8"/>
+    </row>
+    <row r="545">
+      <c r="V545" s="8"/>
+    </row>
+    <row r="546">
+      <c r="V546" s="8"/>
+    </row>
+    <row r="547">
+      <c r="V547" s="8"/>
+    </row>
+    <row r="548">
+      <c r="V548" s="8"/>
+    </row>
+    <row r="549">
+      <c r="V549" s="8"/>
+    </row>
+    <row r="550">
+      <c r="V550" s="8"/>
+    </row>
+    <row r="551">
+      <c r="V551" s="8"/>
+    </row>
+    <row r="552">
+      <c r="V552" s="8"/>
+    </row>
+    <row r="553">
+      <c r="V553" s="8"/>
+    </row>
+    <row r="554">
+      <c r="V554" s="8"/>
+    </row>
+    <row r="555">
+      <c r="V555" s="8"/>
+    </row>
+    <row r="556">
+      <c r="V556" s="8"/>
+    </row>
+    <row r="557">
+      <c r="V557" s="8"/>
+    </row>
+    <row r="558">
+      <c r="V558" s="8"/>
+    </row>
+    <row r="559">
+      <c r="V559" s="8"/>
+    </row>
+    <row r="560">
+      <c r="V560" s="8"/>
+    </row>
+    <row r="561">
+      <c r="V561" s="8"/>
+    </row>
+    <row r="562">
+      <c r="V562" s="8"/>
+    </row>
+    <row r="563">
+      <c r="V563" s="8"/>
+    </row>
+    <row r="564">
+      <c r="V564" s="8"/>
+    </row>
+    <row r="565">
+      <c r="V565" s="8"/>
+    </row>
+    <row r="566">
+      <c r="V566" s="8"/>
+    </row>
+    <row r="567">
+      <c r="V567" s="8"/>
+    </row>
+    <row r="568">
+      <c r="V568" s="8"/>
+    </row>
+    <row r="569">
+      <c r="V569" s="8"/>
+    </row>
+    <row r="570">
+      <c r="V570" s="8"/>
+    </row>
+    <row r="571">
+      <c r="V571" s="8"/>
+    </row>
+    <row r="572">
+      <c r="V572" s="8"/>
+    </row>
+    <row r="573">
+      <c r="V573" s="8"/>
+    </row>
+    <row r="574">
+      <c r="V574" s="8"/>
+    </row>
+    <row r="575">
+      <c r="V575" s="8"/>
+    </row>
+    <row r="576">
+      <c r="V576" s="8"/>
+    </row>
+    <row r="577">
+      <c r="V577" s="8"/>
+    </row>
+    <row r="578">
+      <c r="V578" s="8"/>
+    </row>
+    <row r="579">
+      <c r="V579" s="8"/>
+    </row>
+    <row r="580">
+      <c r="V580" s="8"/>
+    </row>
+    <row r="581">
+      <c r="V581" s="8"/>
+    </row>
+    <row r="582">
+      <c r="V582" s="8"/>
+    </row>
+    <row r="583">
+      <c r="V583" s="8"/>
+    </row>
+    <row r="584">
+      <c r="V584" s="8"/>
+    </row>
+    <row r="585">
+      <c r="V585" s="8"/>
+    </row>
+    <row r="586">
+      <c r="V586" s="8"/>
+    </row>
+    <row r="587">
+      <c r="V587" s="8"/>
+    </row>
+    <row r="588">
+      <c r="V588" s="8"/>
+    </row>
+    <row r="589">
+      <c r="V589" s="8"/>
+    </row>
+    <row r="590">
+      <c r="V590" s="8"/>
+    </row>
+    <row r="591">
+      <c r="V591" s="8"/>
+    </row>
+    <row r="592">
+      <c r="V592" s="8"/>
+    </row>
+    <row r="593">
+      <c r="V593" s="8"/>
+    </row>
+    <row r="594">
+      <c r="V594" s="8"/>
+    </row>
+    <row r="595">
+      <c r="V595" s="8"/>
+    </row>
+    <row r="596">
+      <c r="V596" s="8"/>
+    </row>
+    <row r="597">
+      <c r="V597" s="8"/>
+    </row>
+    <row r="598">
+      <c r="V598" s="8"/>
+    </row>
+    <row r="599">
+      <c r="V599" s="8"/>
+    </row>
+    <row r="600">
+      <c r="V600" s="8"/>
+    </row>
+    <row r="601">
+      <c r="V601" s="8"/>
+    </row>
+    <row r="602">
+      <c r="V602" s="8"/>
+    </row>
+    <row r="603">
+      <c r="V603" s="8"/>
+    </row>
+    <row r="604">
+      <c r="V604" s="8"/>
+    </row>
+    <row r="605">
+      <c r="V605" s="8"/>
+    </row>
+    <row r="606">
+      <c r="V606" s="8"/>
+    </row>
+    <row r="607">
+      <c r="V607" s="8"/>
+    </row>
+    <row r="608">
+      <c r="V608" s="8"/>
+    </row>
+    <row r="609">
+      <c r="V609" s="8"/>
+    </row>
+    <row r="610">
+      <c r="V610" s="8"/>
+    </row>
+    <row r="611">
+      <c r="V611" s="8"/>
+    </row>
+    <row r="612">
+      <c r="V612" s="8"/>
+    </row>
+    <row r="613">
+      <c r="V613" s="8"/>
+    </row>
+    <row r="614">
+      <c r="V614" s="8"/>
+    </row>
+    <row r="615">
+      <c r="V615" s="8"/>
+    </row>
+    <row r="616">
+      <c r="V616" s="8"/>
+    </row>
+    <row r="617">
+      <c r="V617" s="8"/>
+    </row>
+    <row r="618">
+      <c r="V618" s="8"/>
+    </row>
+    <row r="619">
+      <c r="V619" s="8"/>
+    </row>
+    <row r="620">
+      <c r="V620" s="8"/>
+    </row>
+    <row r="621">
+      <c r="V621" s="8"/>
+    </row>
+    <row r="622">
+      <c r="V622" s="8"/>
+    </row>
+    <row r="623">
+      <c r="V623" s="8"/>
+    </row>
+    <row r="624">
+      <c r="V624" s="8"/>
+    </row>
+    <row r="625">
+      <c r="V625" s="8"/>
+    </row>
+    <row r="626">
+      <c r="V626" s="8"/>
+    </row>
+    <row r="627">
+      <c r="V627" s="8"/>
+    </row>
+    <row r="628">
+      <c r="V628" s="8"/>
+    </row>
+    <row r="629">
+      <c r="V629" s="8"/>
+    </row>
+    <row r="630">
+      <c r="V630" s="8"/>
+    </row>
+    <row r="631">
+      <c r="V631" s="8"/>
+    </row>
+    <row r="632">
+      <c r="V632" s="8"/>
+    </row>
+    <row r="633">
+      <c r="V633" s="8"/>
+    </row>
+    <row r="634">
+      <c r="V634" s="8"/>
+    </row>
+    <row r="635">
+      <c r="V635" s="8"/>
+    </row>
+    <row r="636">
+      <c r="V636" s="8"/>
+    </row>
+    <row r="637">
+      <c r="V637" s="8"/>
+    </row>
+    <row r="638">
+      <c r="V638" s="8"/>
+    </row>
+    <row r="639">
+      <c r="V639" s="8"/>
+    </row>
+    <row r="640">
+      <c r="V640" s="8"/>
+    </row>
+    <row r="641">
+      <c r="V641" s="8"/>
+    </row>
+    <row r="642">
+      <c r="V642" s="8"/>
+    </row>
+    <row r="643">
+      <c r="V643" s="8"/>
+    </row>
+    <row r="644">
+      <c r="V644" s="8"/>
+    </row>
+    <row r="645">
+      <c r="V645" s="8"/>
+    </row>
+    <row r="646">
+      <c r="V646" s="8"/>
+    </row>
+    <row r="647">
+      <c r="V647" s="8"/>
+    </row>
+    <row r="648">
+      <c r="V648" s="8"/>
+    </row>
+    <row r="649">
+      <c r="V649" s="8"/>
+    </row>
+    <row r="650">
+      <c r="V650" s="8"/>
+    </row>
+    <row r="651">
+      <c r="V651" s="8"/>
+    </row>
+    <row r="652">
+      <c r="V652" s="8"/>
+    </row>
+    <row r="653">
+      <c r="V653" s="8"/>
+    </row>
+    <row r="654">
+      <c r="V654" s="8"/>
+    </row>
+    <row r="655">
+      <c r="V655" s="8"/>
+    </row>
+    <row r="656">
+      <c r="V656" s="8"/>
+    </row>
+    <row r="657">
+      <c r="V657" s="8"/>
+    </row>
+    <row r="658">
+      <c r="V658" s="8"/>
+    </row>
+    <row r="659">
+      <c r="V659" s="8"/>
+    </row>
+    <row r="660">
+      <c r="V660" s="8"/>
+    </row>
+    <row r="661">
+      <c r="V661" s="8"/>
+    </row>
+    <row r="662">
+      <c r="V662" s="8"/>
+    </row>
+    <row r="663">
+      <c r="V663" s="8"/>
+    </row>
+    <row r="664">
+      <c r="V664" s="8"/>
+    </row>
+    <row r="665">
+      <c r="V665" s="8"/>
+    </row>
+    <row r="666">
+      <c r="V666" s="8"/>
+    </row>
+    <row r="667">
+      <c r="V667" s="8"/>
+    </row>
+    <row r="668">
+      <c r="V668" s="8"/>
+    </row>
+    <row r="669">
+      <c r="V669" s="8"/>
+    </row>
+    <row r="670">
+      <c r="V670" s="8"/>
+    </row>
+    <row r="671">
+      <c r="V671" s="8"/>
+    </row>
+    <row r="672">
+      <c r="V672" s="8"/>
+    </row>
+    <row r="673">
+      <c r="V673" s="8"/>
+    </row>
+    <row r="674">
+      <c r="V674" s="8"/>
+    </row>
+    <row r="675">
+      <c r="V675" s="8"/>
+    </row>
+    <row r="676">
+      <c r="V676" s="8"/>
+    </row>
+    <row r="677">
+      <c r="V677" s="8"/>
+    </row>
+    <row r="678">
+      <c r="V678" s="8"/>
+    </row>
+    <row r="679">
+      <c r="V679" s="8"/>
+    </row>
+    <row r="680">
+      <c r="V680" s="8"/>
+    </row>
+    <row r="681">
+      <c r="V681" s="8"/>
+    </row>
+    <row r="682">
+      <c r="V682" s="8"/>
+    </row>
+    <row r="683">
+      <c r="V683" s="8"/>
+    </row>
+    <row r="684">
+      <c r="V684" s="8"/>
+    </row>
+    <row r="685">
+      <c r="V685" s="8"/>
+    </row>
+    <row r="686">
+      <c r="V686" s="8"/>
+    </row>
+    <row r="687">
+      <c r="V687" s="8"/>
+    </row>
+    <row r="688">
+      <c r="V688" s="8"/>
+    </row>
+    <row r="689">
+      <c r="V689" s="8"/>
+    </row>
+    <row r="690">
+      <c r="V690" s="8"/>
+    </row>
+    <row r="691">
+      <c r="V691" s="8"/>
+    </row>
+    <row r="692">
+      <c r="V692" s="8"/>
+    </row>
+    <row r="693">
+      <c r="V693" s="8"/>
+    </row>
+    <row r="694">
+      <c r="V694" s="8"/>
+    </row>
+    <row r="695">
+      <c r="V695" s="8"/>
+    </row>
+    <row r="696">
+      <c r="V696" s="8"/>
+    </row>
+    <row r="697">
+      <c r="V697" s="8"/>
+    </row>
+    <row r="698">
+      <c r="V698" s="8"/>
+    </row>
+    <row r="699">
+      <c r="V699" s="8"/>
+    </row>
+    <row r="700">
+      <c r="V700" s="8"/>
+    </row>
+    <row r="701">
+      <c r="V701" s="8"/>
+    </row>
+    <row r="702">
+      <c r="V702" s="8"/>
+    </row>
+    <row r="703">
+      <c r="V703" s="8"/>
+    </row>
+    <row r="704">
+      <c r="V704" s="8"/>
+    </row>
+    <row r="705">
+      <c r="V705" s="8"/>
+    </row>
+    <row r="706">
+      <c r="V706" s="8"/>
+    </row>
+    <row r="707">
+      <c r="V707" s="8"/>
+    </row>
+    <row r="708">
+      <c r="V708" s="8"/>
+    </row>
+    <row r="709">
+      <c r="V709" s="8"/>
+    </row>
+    <row r="710">
+      <c r="V710" s="8"/>
+    </row>
+    <row r="711">
+      <c r="V711" s="8"/>
+    </row>
+    <row r="712">
+      <c r="V712" s="8"/>
+    </row>
+    <row r="713">
+      <c r="V713" s="8"/>
+    </row>
+    <row r="714">
+      <c r="V714" s="8"/>
+    </row>
+    <row r="715">
+      <c r="V715" s="8"/>
+    </row>
+    <row r="716">
+      <c r="V716" s="8"/>
+    </row>
+    <row r="717">
+      <c r="V717" s="8"/>
+    </row>
+    <row r="718">
+      <c r="V718" s="8"/>
+    </row>
+    <row r="719">
+      <c r="V719" s="8"/>
+    </row>
+    <row r="720">
+      <c r="V720" s="8"/>
+    </row>
+    <row r="721">
+      <c r="V721" s="8"/>
+    </row>
+    <row r="722">
+      <c r="V722" s="8"/>
+    </row>
+    <row r="723">
+      <c r="V723" s="8"/>
+    </row>
+    <row r="724">
+      <c r="V724" s="8"/>
+    </row>
+    <row r="725">
+      <c r="V725" s="8"/>
+    </row>
+    <row r="726">
+      <c r="V726" s="8"/>
+    </row>
+    <row r="727">
+      <c r="V727" s="8"/>
+    </row>
+    <row r="728">
+      <c r="V728" s="8"/>
+    </row>
+    <row r="729">
+      <c r="V729" s="8"/>
+    </row>
+    <row r="730">
+      <c r="V730" s="8"/>
+    </row>
+    <row r="731">
+      <c r="V731" s="8"/>
+    </row>
+    <row r="732">
+      <c r="V732" s="8"/>
+    </row>
+    <row r="733">
+      <c r="V733" s="8"/>
+    </row>
+    <row r="734">
+      <c r="V734" s="8"/>
+    </row>
+    <row r="735">
+      <c r="V735" s="8"/>
+    </row>
+    <row r="736">
+      <c r="V736" s="8"/>
+    </row>
+    <row r="737">
+      <c r="V737" s="8"/>
+    </row>
+    <row r="738">
+      <c r="V738" s="8"/>
+    </row>
+    <row r="739">
+      <c r="V739" s="8"/>
+    </row>
+    <row r="740">
+      <c r="V740" s="8"/>
+    </row>
+    <row r="741">
+      <c r="V741" s="8"/>
+    </row>
+    <row r="742">
+      <c r="V742" s="8"/>
+    </row>
+    <row r="743">
+      <c r="V743" s="8"/>
+    </row>
+    <row r="744">
+      <c r="V744" s="8"/>
+    </row>
+    <row r="745">
+      <c r="V745" s="8"/>
+    </row>
+    <row r="746">
+      <c r="V746" s="8"/>
+    </row>
+    <row r="747">
+      <c r="V747" s="8"/>
+    </row>
+    <row r="748">
+      <c r="V748" s="8"/>
+    </row>
+    <row r="749">
+      <c r="V749" s="8"/>
+    </row>
+    <row r="750">
+      <c r="V750" s="8"/>
+    </row>
+    <row r="751">
+      <c r="V751" s="8"/>
+    </row>
+    <row r="752">
+      <c r="V752" s="8"/>
+    </row>
+    <row r="753">
+      <c r="V753" s="8"/>
+    </row>
+    <row r="754">
+      <c r="V754" s="8"/>
+    </row>
+    <row r="755">
+      <c r="V755" s="8"/>
+    </row>
+    <row r="756">
+      <c r="V756" s="8"/>
+    </row>
+    <row r="757">
+      <c r="V757" s="8"/>
+    </row>
+    <row r="758">
+      <c r="V758" s="8"/>
+    </row>
+    <row r="759">
+      <c r="V759" s="8"/>
+    </row>
+    <row r="760">
+      <c r="V760" s="8"/>
+    </row>
+    <row r="761">
+      <c r="V761" s="8"/>
+    </row>
+    <row r="762">
+      <c r="V762" s="8"/>
+    </row>
+    <row r="763">
+      <c r="V763" s="8"/>
+    </row>
+    <row r="764">
+      <c r="V764" s="8"/>
+    </row>
+    <row r="765">
+      <c r="V765" s="8"/>
+    </row>
+    <row r="766">
+      <c r="V766" s="8"/>
+    </row>
+    <row r="767">
+      <c r="V767" s="8"/>
+    </row>
+    <row r="768">
+      <c r="V768" s="8"/>
+    </row>
+    <row r="769">
+      <c r="V769" s="8"/>
+    </row>
+    <row r="770">
+      <c r="V770" s="8"/>
+    </row>
+    <row r="771">
+      <c r="V771" s="8"/>
+    </row>
+    <row r="772">
+      <c r="V772" s="8"/>
+    </row>
+    <row r="773">
+      <c r="V773" s="8"/>
+    </row>
+    <row r="774">
+      <c r="V774" s="8"/>
+    </row>
+    <row r="775">
+      <c r="V775" s="8"/>
+    </row>
+    <row r="776">
+      <c r="V776" s="8"/>
+    </row>
+    <row r="777">
+      <c r="V777" s="8"/>
+    </row>
+    <row r="778">
+      <c r="V778" s="8"/>
+    </row>
+    <row r="779">
+      <c r="V779" s="8"/>
+    </row>
+    <row r="780">
+      <c r="V780" s="8"/>
+    </row>
+    <row r="781">
+      <c r="V781" s="8"/>
+    </row>
+    <row r="782">
+      <c r="V782" s="8"/>
+    </row>
+    <row r="783">
+      <c r="V783" s="8"/>
+    </row>
+    <row r="784">
+      <c r="V784" s="8"/>
+    </row>
+    <row r="785">
+      <c r="V785" s="8"/>
+    </row>
+    <row r="786">
+      <c r="V786" s="8"/>
+    </row>
+    <row r="787">
+      <c r="V787" s="8"/>
+    </row>
+    <row r="788">
+      <c r="V788" s="8"/>
+    </row>
+    <row r="789">
+      <c r="V789" s="8"/>
+    </row>
+    <row r="790">
+      <c r="V790" s="8"/>
+    </row>
+    <row r="791">
+      <c r="V791" s="8"/>
+    </row>
+    <row r="792">
+      <c r="V792" s="8"/>
+    </row>
+    <row r="793">
+      <c r="V793" s="8"/>
+    </row>
+    <row r="794">
+      <c r="V794" s="8"/>
+    </row>
+    <row r="795">
+      <c r="V795" s="8"/>
+    </row>
+    <row r="796">
+      <c r="V796" s="8"/>
+    </row>
+    <row r="797">
+      <c r="V797" s="8"/>
+    </row>
+    <row r="798">
+      <c r="V798" s="8"/>
+    </row>
+    <row r="799">
+      <c r="V799" s="8"/>
+    </row>
+    <row r="800">
+      <c r="V800" s="8"/>
+    </row>
+    <row r="801">
+      <c r="V801" s="8"/>
+    </row>
+    <row r="802">
+      <c r="V802" s="8"/>
+    </row>
+    <row r="803">
+      <c r="V803" s="8"/>
+    </row>
+    <row r="804">
+      <c r="V804" s="8"/>
+    </row>
+    <row r="805">
+      <c r="V805" s="8"/>
+    </row>
+    <row r="806">
+      <c r="V806" s="8"/>
+    </row>
+    <row r="807">
+      <c r="V807" s="8"/>
+    </row>
+    <row r="808">
+      <c r="V808" s="8"/>
+    </row>
+    <row r="809">
+      <c r="V809" s="8"/>
+    </row>
+    <row r="810">
+      <c r="V810" s="8"/>
+    </row>
+    <row r="811">
+      <c r="V811" s="8"/>
+    </row>
+    <row r="812">
+      <c r="V812" s="8"/>
+    </row>
+    <row r="813">
+      <c r="V813" s="8"/>
+    </row>
+    <row r="814">
+      <c r="V814" s="8"/>
+    </row>
+    <row r="815">
+      <c r="V815" s="8"/>
+    </row>
+    <row r="816">
+      <c r="V816" s="8"/>
+    </row>
+    <row r="817">
+      <c r="V817" s="8"/>
+    </row>
+    <row r="818">
+      <c r="V818" s="8"/>
+    </row>
+    <row r="819">
+      <c r="V819" s="8"/>
+    </row>
+    <row r="820">
+      <c r="V820" s="8"/>
+    </row>
+    <row r="821">
+      <c r="V821" s="8"/>
+    </row>
+    <row r="822">
+      <c r="V822" s="8"/>
+    </row>
+    <row r="823">
+      <c r="V823" s="8"/>
+    </row>
+    <row r="824">
+      <c r="V824" s="8"/>
+    </row>
+    <row r="825">
+      <c r="V825" s="8"/>
+    </row>
+    <row r="826">
+      <c r="V826" s="8"/>
+    </row>
+    <row r="827">
+      <c r="V827" s="8"/>
+    </row>
+    <row r="828">
+      <c r="V828" s="8"/>
+    </row>
+    <row r="829">
+      <c r="V829" s="8"/>
+    </row>
+    <row r="830">
+      <c r="V830" s="8"/>
+    </row>
+    <row r="831">
+      <c r="V831" s="8"/>
+    </row>
+    <row r="832">
+      <c r="V832" s="8"/>
+    </row>
+    <row r="833">
+      <c r="V833" s="8"/>
+    </row>
+    <row r="834">
+      <c r="V834" s="8"/>
+    </row>
+    <row r="835">
+      <c r="V835" s="8"/>
+    </row>
+    <row r="836">
+      <c r="V836" s="8"/>
+    </row>
+    <row r="837">
+      <c r="V837" s="8"/>
+    </row>
+    <row r="838">
+      <c r="V838" s="8"/>
+    </row>
+    <row r="839">
+      <c r="V839" s="8"/>
+    </row>
+    <row r="840">
+      <c r="V840" s="8"/>
+    </row>
+    <row r="841">
+      <c r="V841" s="8"/>
+    </row>
+    <row r="842">
+      <c r="V842" s="8"/>
+    </row>
+    <row r="843">
+      <c r="V843" s="8"/>
+    </row>
+    <row r="844">
+      <c r="V844" s="8"/>
+    </row>
+    <row r="845">
+      <c r="V845" s="8"/>
+    </row>
+    <row r="846">
+      <c r="V846" s="8"/>
+    </row>
+    <row r="847">
+      <c r="V847" s="8"/>
+    </row>
+    <row r="848">
+      <c r="V848" s="8"/>
+    </row>
+    <row r="849">
+      <c r="V849" s="8"/>
+    </row>
+    <row r="850">
+      <c r="V850" s="8"/>
+    </row>
+    <row r="851">
+      <c r="V851" s="8"/>
+    </row>
+    <row r="852">
+      <c r="V852" s="8"/>
+    </row>
+    <row r="853">
+      <c r="V853" s="8"/>
+    </row>
+    <row r="854">
+      <c r="V854" s="8"/>
+    </row>
+    <row r="855">
+      <c r="V855" s="8"/>
+    </row>
+    <row r="856">
+      <c r="V856" s="8"/>
+    </row>
+    <row r="857">
+      <c r="V857" s="8"/>
+    </row>
+    <row r="858">
+      <c r="V858" s="8"/>
+    </row>
+    <row r="859">
+      <c r="V859" s="8"/>
+    </row>
+    <row r="860">
+      <c r="V860" s="8"/>
+    </row>
+    <row r="861">
+      <c r="V861" s="8"/>
+    </row>
+    <row r="862">
+      <c r="V862" s="8"/>
+    </row>
+    <row r="863">
+      <c r="V863" s="8"/>
+    </row>
+    <row r="864">
+      <c r="V864" s="8"/>
+    </row>
+    <row r="865">
+      <c r="V865" s="8"/>
+    </row>
+    <row r="866">
+      <c r="V866" s="8"/>
+    </row>
+    <row r="867">
+      <c r="V867" s="8"/>
+    </row>
+    <row r="868">
+      <c r="V868" s="8"/>
+    </row>
+    <row r="869">
+      <c r="V869" s="8"/>
+    </row>
+    <row r="870">
+      <c r="V870" s="8"/>
+    </row>
+    <row r="871">
+      <c r="V871" s="8"/>
+    </row>
+    <row r="872">
+      <c r="V872" s="8"/>
+    </row>
+    <row r="873">
+      <c r="V873" s="8"/>
+    </row>
+    <row r="874">
+      <c r="V874" s="8"/>
+    </row>
+    <row r="875">
+      <c r="V875" s="8"/>
+    </row>
+    <row r="876">
+      <c r="V876" s="8"/>
+    </row>
+    <row r="877">
+      <c r="V877" s="8"/>
+    </row>
+    <row r="878">
+      <c r="V878" s="8"/>
+    </row>
+    <row r="879">
+      <c r="V879" s="8"/>
+    </row>
+    <row r="880">
+      <c r="V880" s="8"/>
+    </row>
+    <row r="881">
+      <c r="V881" s="8"/>
+    </row>
+    <row r="882">
+      <c r="V882" s="8"/>
+    </row>
+    <row r="883">
+      <c r="V883" s="8"/>
+    </row>
+    <row r="884">
+      <c r="V884" s="8"/>
+    </row>
+    <row r="885">
+      <c r="V885" s="8"/>
+    </row>
+    <row r="886">
+      <c r="V886" s="8"/>
+    </row>
+    <row r="887">
+      <c r="V887" s="8"/>
+    </row>
+    <row r="888">
+      <c r="V888" s="8"/>
+    </row>
+    <row r="889">
+      <c r="V889" s="8"/>
+    </row>
+    <row r="890">
+      <c r="V890" s="8"/>
+    </row>
+    <row r="891">
+      <c r="V891" s="8"/>
+    </row>
+    <row r="892">
+      <c r="V892" s="8"/>
+    </row>
+    <row r="893">
+      <c r="V893" s="8"/>
+    </row>
+    <row r="894">
+      <c r="V894" s="8"/>
+    </row>
+    <row r="895">
+      <c r="V895" s="8"/>
+    </row>
+    <row r="896">
+      <c r="V896" s="8"/>
+    </row>
+    <row r="897">
+      <c r="V897" s="8"/>
+    </row>
+    <row r="898">
+      <c r="V898" s="8"/>
+    </row>
+    <row r="899">
+      <c r="V899" s="8"/>
+    </row>
+    <row r="900">
+      <c r="V900" s="8"/>
+    </row>
+    <row r="901">
+      <c r="V901" s="8"/>
+    </row>
+    <row r="902">
+      <c r="V902" s="8"/>
+    </row>
+    <row r="903">
+      <c r="V903" s="8"/>
+    </row>
+    <row r="904">
+      <c r="V904" s="8"/>
+    </row>
+    <row r="905">
+      <c r="V905" s="8"/>
+    </row>
+    <row r="906">
+      <c r="V906" s="8"/>
+    </row>
+    <row r="907">
+      <c r="V907" s="8"/>
+    </row>
+    <row r="908">
+      <c r="V908" s="8"/>
+    </row>
+    <row r="909">
+      <c r="V909" s="8"/>
+    </row>
+    <row r="910">
+      <c r="V910" s="8"/>
+    </row>
+    <row r="911">
+      <c r="V911" s="8"/>
+    </row>
+    <row r="912">
+      <c r="V912" s="8"/>
+    </row>
+    <row r="913">
+      <c r="V913" s="8"/>
+    </row>
+    <row r="914">
+      <c r="V914" s="8"/>
+    </row>
+    <row r="915">
+      <c r="V915" s="8"/>
+    </row>
+    <row r="916">
+      <c r="V916" s="8"/>
+    </row>
+    <row r="917">
+      <c r="V917" s="8"/>
+    </row>
+    <row r="918">
+      <c r="V918" s="8"/>
+    </row>
+    <row r="919">
+      <c r="V919" s="8"/>
+    </row>
+    <row r="920">
+      <c r="V920" s="8"/>
+    </row>
+    <row r="921">
+      <c r="V921" s="8"/>
+    </row>
+    <row r="922">
+      <c r="V922" s="8"/>
+    </row>
+    <row r="923">
+      <c r="V923" s="8"/>
+    </row>
+    <row r="924">
+      <c r="V924" s="8"/>
+    </row>
+    <row r="925">
+      <c r="V925" s="8"/>
+    </row>
+    <row r="926">
+      <c r="V926" s="8"/>
+    </row>
+    <row r="927">
+      <c r="V927" s="8"/>
+    </row>
+    <row r="928">
+      <c r="V928" s="8"/>
+    </row>
+    <row r="929">
+      <c r="V929" s="8"/>
+    </row>
+    <row r="930">
+      <c r="V930" s="8"/>
+    </row>
+    <row r="931">
+      <c r="V931" s="8"/>
+    </row>
+    <row r="932">
+      <c r="V932" s="8"/>
+    </row>
+    <row r="933">
+      <c r="V933" s="8"/>
+    </row>
+    <row r="934">
+      <c r="V934" s="8"/>
+    </row>
+    <row r="935">
+      <c r="V935" s="8"/>
+    </row>
+    <row r="936">
+      <c r="V936" s="8"/>
+    </row>
+    <row r="937">
+      <c r="V937" s="8"/>
+    </row>
+    <row r="938">
+      <c r="V938" s="8"/>
+    </row>
+    <row r="939">
+      <c r="V939" s="8"/>
+    </row>
+    <row r="940">
+      <c r="V940" s="8"/>
+    </row>
+    <row r="941">
+      <c r="V941" s="8"/>
+    </row>
+    <row r="942">
+      <c r="V942" s="8"/>
+    </row>
+    <row r="943">
+      <c r="V943" s="8"/>
+    </row>
+    <row r="944">
+      <c r="V944" s="8"/>
+    </row>
+    <row r="945">
+      <c r="V945" s="8"/>
+    </row>
+    <row r="946">
+      <c r="V946" s="8"/>
+    </row>
+    <row r="947">
+      <c r="V947" s="8"/>
+    </row>
+    <row r="948">
+      <c r="V948" s="8"/>
+    </row>
+    <row r="949">
+      <c r="V949" s="8"/>
+    </row>
+    <row r="950">
+      <c r="V950" s="8"/>
+    </row>
+    <row r="951">
+      <c r="V951" s="8"/>
+    </row>
+    <row r="952">
+      <c r="V952" s="8"/>
+    </row>
+    <row r="953">
+      <c r="V953" s="8"/>
+    </row>
+    <row r="954">
+      <c r="V954" s="8"/>
+    </row>
+    <row r="955">
+      <c r="V955" s="8"/>
+    </row>
+    <row r="956">
+      <c r="V956" s="8"/>
+    </row>
+    <row r="957">
+      <c r="V957" s="8"/>
+    </row>
+    <row r="958">
+      <c r="V958" s="8"/>
+    </row>
+    <row r="959">
+      <c r="V959" s="8"/>
+    </row>
+    <row r="960">
+      <c r="V960" s="8"/>
+    </row>
+    <row r="961">
+      <c r="V961" s="8"/>
+    </row>
+    <row r="962">
+      <c r="V962" s="8"/>
+    </row>
+    <row r="963">
+      <c r="V963" s="8"/>
+    </row>
+    <row r="964">
+      <c r="V964" s="8"/>
+    </row>
+    <row r="965">
+      <c r="V965" s="8"/>
+    </row>
+    <row r="966">
+      <c r="V966" s="8"/>
+    </row>
+    <row r="967">
+      <c r="V967" s="8"/>
+    </row>
+    <row r="968">
+      <c r="V968" s="8"/>
+    </row>
+    <row r="969">
+      <c r="V969" s="8"/>
+    </row>
+    <row r="970">
+      <c r="V970" s="8"/>
+    </row>
+    <row r="971">
+      <c r="V971" s="8"/>
+    </row>
+    <row r="972">
+      <c r="V972" s="8"/>
+    </row>
+    <row r="973">
+      <c r="V973" s="8"/>
+    </row>
+    <row r="974">
+      <c r="V974" s="8"/>
+    </row>
+    <row r="975">
+      <c r="V975" s="8"/>
+    </row>
+    <row r="976">
+      <c r="V976" s="8"/>
+    </row>
+    <row r="977">
+      <c r="V977" s="8"/>
+    </row>
+    <row r="978">
+      <c r="V978" s="8"/>
+    </row>
+    <row r="979">
+      <c r="V979" s="8"/>
+    </row>
+    <row r="980">
+      <c r="V980" s="8"/>
+    </row>
+    <row r="981">
+      <c r="V981" s="8"/>
+    </row>
+    <row r="982">
+      <c r="V982" s="8"/>
+    </row>
+    <row r="983">
+      <c r="V983" s="8"/>
+    </row>
+    <row r="984">
+      <c r="V984" s="8"/>
+    </row>
+    <row r="985">
+      <c r="V985" s="8"/>
+    </row>
+    <row r="986">
+      <c r="V986" s="8"/>
+    </row>
+    <row r="987">
+      <c r="V987" s="8"/>
+    </row>
+    <row r="988">
+      <c r="V988" s="8"/>
+    </row>
+    <row r="989">
+      <c r="V989" s="8"/>
+    </row>
+    <row r="990">
+      <c r="V990" s="8"/>
+    </row>
+    <row r="991">
+      <c r="V991" s="8"/>
+    </row>
+    <row r="992">
+      <c r="V992" s="8"/>
+    </row>
+    <row r="993">
+      <c r="V993" s="8"/>
+    </row>
+    <row r="994">
+      <c r="V994" s="8"/>
+    </row>
+    <row r="995">
+      <c r="V995" s="8"/>
+    </row>
+    <row r="996">
+      <c r="V996" s="8"/>
+    </row>
+    <row r="997">
+      <c r="V997" s="8"/>
+    </row>
+    <row r="998">
+      <c r="V998" s="8"/>
+    </row>
+    <row r="999">
+      <c r="V999" s="8"/>
+    </row>
+    <row r="1000">
+      <c r="V1000" s="8"/>
+    </row>
+    <row r="1001">
+      <c r="V1001" s="8"/>
+    </row>
+    <row r="1002">
+      <c r="V1002" s="8"/>
+    </row>
+    <row r="1003">
+      <c r="V1003" s="8"/>
+    </row>
+    <row r="1004">
+      <c r="V1004" s="8"/>
+    </row>
+    <row r="1005">
+      <c r="V1005" s="8"/>
+    </row>
+    <row r="1006">
+      <c r="V1006" s="8"/>
+    </row>
+    <row r="1007">
+      <c r="V1007" s="8"/>
+    </row>
+    <row r="1008">
+      <c r="V1008" s="8"/>
+    </row>
+    <row r="1009">
+      <c r="V1009" s="8"/>
+    </row>
+    <row r="1010">
+      <c r="V1010" s="8"/>
+    </row>
+    <row r="1011">
+      <c r="V1011" s="8"/>
+    </row>
+    <row r="1012">
+      <c r="V1012" s="8"/>
+    </row>
+    <row r="1013">
+      <c r="V1013" s="8"/>
+    </row>
+    <row r="1014">
+      <c r="V1014" s="8"/>
+    </row>
+    <row r="1015">
+      <c r="V1015" s="8"/>
+    </row>
+    <row r="1016">
+      <c r="V1016" s="8"/>
+    </row>
+    <row r="1017">
+      <c r="V1017" s="8"/>
+    </row>
+    <row r="1018">
+      <c r="V1018" s="8"/>
+    </row>
+    <row r="1019">
+      <c r="V1019" s="8"/>
+    </row>
+    <row r="1020">
+      <c r="V1020" s="8"/>
+    </row>
+    <row r="1021">
+      <c r="V1021" s="8"/>
+    </row>
+    <row r="1022">
+      <c r="V1022" s="8"/>
+    </row>
+    <row r="1023">
+      <c r="V1023" s="8"/>
+    </row>
+    <row r="1024">
+      <c r="V1024" s="8"/>
+    </row>
+    <row r="1025">
+      <c r="V1025" s="8"/>
+    </row>
+    <row r="1026">
+      <c r="V1026" s="8"/>
+    </row>
+    <row r="1027">
+      <c r="V1027" s="8"/>
+    </row>
+    <row r="1028">
+      <c r="V1028" s="8"/>
+    </row>
+    <row r="1029">
+      <c r="V1029" s="8"/>
+    </row>
+    <row r="1030">
+      <c r="V1030" s="8"/>
+    </row>
+    <row r="1031">
+      <c r="V1031" s="8"/>
+    </row>
+    <row r="1032">
+      <c r="V1032" s="8"/>
+    </row>
+    <row r="1033">
+      <c r="V1033" s="8"/>
+    </row>
+    <row r="1034">
+      <c r="V1034" s="8"/>
+    </row>
+    <row r="1035">
+      <c r="V1035" s="8"/>
+    </row>
+    <row r="1036">
+      <c r="V1036" s="8"/>
+    </row>
+    <row r="1037">
+      <c r="V1037" s="8"/>
+    </row>
+    <row r="1038">
+      <c r="V1038" s="8"/>
+    </row>
+    <row r="1039">
+      <c r="V1039" s="8"/>
+    </row>
+    <row r="1040">
+      <c r="V1040" s="8"/>
+    </row>
+    <row r="1041">
+      <c r="V1041" s="8"/>
+    </row>
+    <row r="1042">
+      <c r="V1042" s="8"/>
+    </row>
+    <row r="1043">
+      <c r="V1043" s="8"/>
+    </row>
+    <row r="1044">
+      <c r="V1044" s="8"/>
+    </row>
+    <row r="1045">
+      <c r="V1045" s="8"/>
+    </row>
+    <row r="1046">
+      <c r="V1046" s="8"/>
+    </row>
+    <row r="1047">
+      <c r="V1047" s="8"/>
+    </row>
+    <row r="1048">
+      <c r="V1048" s="8"/>
+    </row>
+    <row r="1049">
+      <c r="V1049" s="8"/>
+    </row>
+    <row r="1050">
+      <c r="V1050" s="8"/>
+    </row>
+    <row r="1051">
+      <c r="V1051" s="8"/>
+    </row>
+    <row r="1052">
+      <c r="V1052" s="8"/>
+    </row>
+    <row r="1053">
+      <c r="V1053" s="8"/>
+    </row>
+    <row r="1054">
+      <c r="V1054" s="8"/>
+    </row>
+  </sheetData>
+  <printOptions gridLines="1" horizontalCentered="1"/>
+  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup fitToHeight="0" cellComments="atEnd" orientation="landscape" pageOrder="overThenDown"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1.0" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="B3" sqref="B3" pane="bottomLeft"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <cols>
+    <col customWidth="1" min="1" max="1" width="33.13"/>
+    <col customWidth="1" min="2" max="2" width="89.75"/>
+    <col customWidth="1" min="3" max="5" width="7.5"/>
+    <col customWidth="1" min="6" max="6" width="5.63"/>
+    <col customWidth="1" min="7" max="10" width="6.5"/>
+    <col customWidth="1" min="11" max="11" width="5.63"/>
+    <col customWidth="1" min="12" max="14" width="6.5"/>
+    <col customWidth="1" min="15" max="15" width="5.63"/>
+    <col customWidth="1" min="16" max="18" width="6.5"/>
+    <col customWidth="1" min="19" max="19" width="5.63"/>
+    <col customWidth="1" min="20" max="22" width="6.5"/>
+    <col customWidth="1" min="23" max="23" width="3.5"/>
+    <col customWidth="1" min="24" max="24" width="5.63"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2">
+        <v>44543.0</v>
+      </c>
+      <c r="D1" s="2">
+        <v>44550.0</v>
+      </c>
+      <c r="E1" s="2">
+        <v>44557.0</v>
+      </c>
+      <c r="F1" s="2">
+        <v>44564.0</v>
+      </c>
+      <c r="G1" s="3">
+        <v>44571.0</v>
+      </c>
+      <c r="H1" s="3">
+        <v>44578.0</v>
+      </c>
+      <c r="I1" s="3">
+        <v>44585.0</v>
+      </c>
+      <c r="J1" s="3">
+        <v>44592.0</v>
+      </c>
+      <c r="K1" s="3">
+        <v>44599.0</v>
+      </c>
+      <c r="L1" s="3">
+        <v>44606.0</v>
+      </c>
+      <c r="M1" s="3">
+        <v>44613.0</v>
+      </c>
+      <c r="N1" s="3">
+        <v>44620.0</v>
+      </c>
+      <c r="O1" s="3">
+        <v>44627.0</v>
+      </c>
+      <c r="P1" s="5">
+        <v>44634.0</v>
+      </c>
+      <c r="Q1" s="3">
+        <v>44641.0</v>
+      </c>
+      <c r="R1" s="3">
+        <v>44648.0</v>
+      </c>
+      <c r="S1" s="3">
+        <v>44655.0</v>
+      </c>
+      <c r="T1" s="3">
+        <v>44662.0</v>
+      </c>
+      <c r="U1" s="3">
+        <v>44669.0</v>
+      </c>
+      <c r="V1" s="3">
+        <v>44676.0</v>
+      </c>
+      <c r="W1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="X1" s="3">
+        <v>44683.0</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="W2" s="8"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
+      <c r="W3" s="8"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="12"/>
+      <c r="B4" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
+      <c r="W4" s="8"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" s="11"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="11"/>
+      <c r="W5" s="8"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="12"/>
+      <c r="B6" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="11"/>
+      <c r="W6" s="8"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="12"/>
+      <c r="B7" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="11"/>
+      <c r="W7" s="8"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="12"/>
+      <c r="B8" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="11"/>
+      <c r="W8" s="8"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="12"/>
+      <c r="B9" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="11"/>
+      <c r="W9" s="8"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="12"/>
+      <c r="B10" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F10" s="11"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="11"/>
+      <c r="W10" s="8"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="12"/>
+      <c r="B11" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="F11" s="11"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="11"/>
+      <c r="W11" s="8"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="12"/>
+      <c r="B12" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F12" s="11"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="11"/>
+      <c r="W12" s="8"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="12"/>
+      <c r="B13" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="F13" s="11"/>
+      <c r="G13" s="11"/>
+      <c r="H13" s="11"/>
+      <c r="W13" s="8"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="12"/>
+      <c r="B14" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="F14" s="11"/>
+      <c r="G14" s="11"/>
+      <c r="H14" s="11"/>
+      <c r="W14" s="8"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15" s="10"/>
+      <c r="H15" s="11"/>
+      <c r="W15" s="8"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16" s="10"/>
+      <c r="H16" s="11"/>
+      <c r="I16" s="11"/>
+      <c r="J16" s="11"/>
+      <c r="W16" s="8"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B17" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="I17" s="11"/>
+      <c r="J17" s="11"/>
+      <c r="W17" s="8"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="12"/>
+      <c r="B18" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="I18" s="11"/>
+      <c r="J18" s="11"/>
+      <c r="W18" s="8"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="12"/>
+      <c r="B19" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="I19" s="11"/>
+      <c r="J19" s="11"/>
+      <c r="W19" s="8"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="12"/>
+      <c r="B20" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="I20" s="11"/>
+      <c r="J20" s="11"/>
+      <c r="W20" s="8"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="12"/>
+      <c r="B21" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="I21" s="11"/>
+      <c r="J21" s="11"/>
+      <c r="W21" s="8"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="12"/>
+      <c r="B22" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="I22" s="11"/>
+      <c r="J22" s="11"/>
+      <c r="W22" s="8"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="12"/>
+      <c r="B23" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="I23" s="11"/>
+      <c r="J23" s="11"/>
+      <c r="W23" s="8"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="12"/>
+      <c r="B24" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="I24" s="11"/>
+      <c r="J24" s="11"/>
+      <c r="W24" s="8"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="12"/>
+      <c r="B25" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="I25" s="11"/>
+      <c r="J25" s="11"/>
+      <c r="W25" s="8"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="12"/>
+      <c r="B26" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="I26" s="11"/>
+      <c r="J26" s="11"/>
+      <c r="W26" s="8"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="12"/>
+      <c r="B27" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="I27" s="11"/>
+      <c r="J27" s="11"/>
+      <c r="W27" s="8"/>
+    </row>
+    <row r="28">
+      <c r="A28" s="12"/>
+      <c r="B28" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="I28" s="11"/>
+      <c r="J28" s="11"/>
+      <c r="W28" s="8"/>
+    </row>
+    <row r="29">
+      <c r="A29" s="12"/>
+      <c r="B29" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="I29" s="11"/>
+      <c r="J29" s="11"/>
+      <c r="W29" s="8"/>
+    </row>
+    <row r="30">
+      <c r="A30" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="B30" s="10"/>
+      <c r="J30" s="11"/>
+      <c r="K30" s="11"/>
+      <c r="W30" s="8"/>
+    </row>
+    <row r="31">
+      <c r="A31" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="B31" s="10"/>
+      <c r="K31" s="11"/>
+      <c r="W31" s="8"/>
+    </row>
+    <row r="32">
+      <c r="A32" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="B32" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="K32" s="11"/>
+      <c r="L32" s="11"/>
+      <c r="W32" s="8"/>
+    </row>
+    <row r="33">
+      <c r="A33" s="12"/>
+      <c r="B33" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="K33" s="11"/>
+      <c r="L33" s="11"/>
+      <c r="W33" s="8"/>
+    </row>
+    <row r="34">
+      <c r="A34" s="12"/>
+      <c r="B34" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="K34" s="11"/>
+      <c r="L34" s="11"/>
+      <c r="W34" s="8"/>
+    </row>
+    <row r="35">
+      <c r="A35" s="12"/>
+      <c r="B35" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="K35" s="11"/>
+      <c r="L35" s="11"/>
+      <c r="W35" s="8"/>
+    </row>
+    <row r="36">
+      <c r="A36" s="12"/>
+      <c r="B36" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="K36" s="11"/>
+      <c r="L36" s="11"/>
+      <c r="W36" s="8"/>
+    </row>
+    <row r="37">
+      <c r="A37" s="12"/>
+      <c r="B37" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="K37" s="11"/>
+      <c r="L37" s="11"/>
+      <c r="W37" s="8"/>
+    </row>
+    <row r="38">
+      <c r="A38" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="B38" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="I38" s="11"/>
+      <c r="J38" s="11"/>
+      <c r="W38" s="8"/>
+    </row>
+    <row r="39">
+      <c r="A39" s="12"/>
+      <c r="B39" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="I39" s="11"/>
+      <c r="J39" s="11"/>
+      <c r="W39" s="8"/>
+    </row>
+    <row r="40">
+      <c r="A40" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="B40" s="10"/>
+      <c r="L40" s="11"/>
+      <c r="M40" s="11"/>
+      <c r="W40" s="8"/>
+    </row>
+    <row r="41">
+      <c r="A41" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="B41" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="K41" s="11"/>
+      <c r="L41" s="11"/>
+      <c r="W41" s="8"/>
+    </row>
+    <row r="42">
+      <c r="A42" s="12"/>
+      <c r="B42" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="K42" s="11"/>
+      <c r="L42" s="11"/>
+      <c r="W42" s="8"/>
+    </row>
+    <row r="43">
+      <c r="A43" s="12"/>
+      <c r="B43" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="K43" s="11"/>
+      <c r="L43" s="11"/>
+      <c r="W43" s="8"/>
+    </row>
+    <row r="44">
+      <c r="A44" s="12"/>
+      <c r="B44" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="K44" s="11"/>
+      <c r="L44" s="11"/>
+      <c r="W44" s="8"/>
+    </row>
+    <row r="45">
+      <c r="A45" s="12"/>
+      <c r="B45" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="K45" s="11"/>
+      <c r="L45" s="11"/>
+      <c r="W45" s="8"/>
+    </row>
+    <row r="46">
+      <c r="A46" s="12"/>
+      <c r="B46" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="W46" s="8"/>
+      <c r="X46" s="11"/>
+    </row>
+    <row r="47">
+      <c r="A47" s="12"/>
+      <c r="B47" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="W47" s="8"/>
+      <c r="X47" s="11"/>
+    </row>
+    <row r="48">
+      <c r="A48" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="B48" s="10"/>
+      <c r="M48" s="11"/>
+      <c r="N48" s="11"/>
+      <c r="W48" s="8"/>
+    </row>
+    <row r="49">
+      <c r="A49" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="B49" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="M49" s="11"/>
+      <c r="N49" s="11"/>
+      <c r="O49" s="11"/>
+      <c r="W49" s="8"/>
+    </row>
+    <row r="50">
+      <c r="A50" s="12"/>
+      <c r="B50" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="M50" s="11"/>
+      <c r="N50" s="11"/>
+      <c r="O50" s="11"/>
+      <c r="W50" s="8"/>
+    </row>
+    <row r="51">
+      <c r="A51" s="12"/>
+      <c r="B51" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="M51" s="11"/>
+      <c r="N51" s="11"/>
+      <c r="O51" s="11"/>
+      <c r="W51" s="8"/>
+    </row>
+    <row r="52">
+      <c r="A52" s="12"/>
+      <c r="B52" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="M52" s="11"/>
+      <c r="N52" s="11"/>
+      <c r="O52" s="11"/>
+      <c r="W52" s="8"/>
+    </row>
+    <row r="53">
+      <c r="A53" s="12"/>
+      <c r="B53" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="M53" s="11"/>
+      <c r="N53" s="11"/>
+      <c r="O53" s="11"/>
+      <c r="W53" s="8"/>
+    </row>
+    <row r="54">
+      <c r="A54" s="12"/>
+      <c r="B54" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="M54" s="11"/>
+      <c r="N54" s="11"/>
+      <c r="O54" s="11"/>
+      <c r="W54" s="8"/>
+    </row>
+    <row r="55">
+      <c r="A55" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="B55" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="N55" s="11"/>
+      <c r="O55" s="11"/>
+      <c r="W55" s="8"/>
+    </row>
+    <row r="56">
+      <c r="A56" s="9"/>
+      <c r="B56" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="N56" s="11"/>
+      <c r="O56" s="11"/>
+      <c r="W56" s="8"/>
+    </row>
+    <row r="57">
+      <c r="A57" s="9"/>
+      <c r="B57" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="N57" s="11"/>
+      <c r="O57" s="11"/>
+      <c r="W57" s="8"/>
+    </row>
+    <row r="58">
+      <c r="A58" s="9"/>
+      <c r="B58" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="N58" s="11"/>
+      <c r="O58" s="11"/>
+      <c r="W58" s="8"/>
+    </row>
+    <row r="59">
+      <c r="A59" s="9"/>
+      <c r="B59" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="N59" s="11"/>
+      <c r="O59" s="11"/>
+      <c r="W59" s="8"/>
+    </row>
+    <row r="60">
+      <c r="A60" s="9"/>
+      <c r="B60" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="N60" s="11"/>
+      <c r="O60" s="11"/>
+      <c r="W60" s="8"/>
+    </row>
+    <row r="61">
+      <c r="A61" s="9"/>
+      <c r="B61" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="N61" s="11"/>
+      <c r="O61" s="11"/>
+      <c r="W61" s="8"/>
+    </row>
+    <row r="62">
+      <c r="A62" s="18" t="s">
+        <v>131</v>
+      </c>
+      <c r="B62" s="19"/>
+      <c r="N62" s="11"/>
+      <c r="O62" s="11"/>
+      <c r="W62" s="8"/>
+    </row>
+    <row r="63">
+      <c r="A63" s="18" t="s">
+        <v>63</v>
+      </c>
+      <c r="B63" s="19"/>
+      <c r="N63" s="11"/>
+      <c r="O63" s="11"/>
+      <c r="W63" s="8"/>
+    </row>
+    <row r="64">
+      <c r="A64" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="B64" s="19"/>
+      <c r="O64" s="11"/>
+      <c r="W64" s="8"/>
+    </row>
+    <row r="65">
+      <c r="A65" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="B65" s="19"/>
+      <c r="P65" s="11"/>
+      <c r="Q65" s="11"/>
+      <c r="W65" s="8"/>
+    </row>
+    <row r="66">
+      <c r="A66" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="B66" s="19"/>
+      <c r="Q66" s="11"/>
+      <c r="R66" s="11"/>
+      <c r="W66" s="8"/>
+    </row>
+    <row r="67">
+      <c r="A67" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="B67" s="19"/>
+      <c r="R67" s="11"/>
+      <c r="S67" s="11"/>
+      <c r="W67" s="8"/>
+    </row>
+    <row r="68">
+      <c r="A68" s="18" t="s">
+        <v>67</v>
+      </c>
+      <c r="B68" s="19"/>
+      <c r="S68" s="11"/>
+      <c r="W68" s="8"/>
+    </row>
+    <row r="69">
+      <c r="A69" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="B69" s="19"/>
+      <c r="T69" s="11"/>
+      <c r="U69" s="11"/>
+      <c r="V69" s="11"/>
+      <c r="W69" s="8"/>
+    </row>
+    <row r="70">
+      <c r="A70" s="18" t="s">
+        <v>69</v>
+      </c>
+      <c r="B70" s="19"/>
+      <c r="T70" s="11"/>
+      <c r="U70" s="11"/>
+      <c r="W70" s="8"/>
+    </row>
+    <row r="71">
+      <c r="A71" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="B71" s="19"/>
+      <c r="T71" s="11"/>
+      <c r="U71" s="11"/>
+      <c r="W71" s="8"/>
+    </row>
+    <row r="72">
+      <c r="A72" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="B72" s="19"/>
+      <c r="T72" s="11"/>
+      <c r="U72" s="11"/>
+      <c r="W72" s="8"/>
+    </row>
+    <row r="73">
+      <c r="A73" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="B73" s="19"/>
+      <c r="U73" s="11"/>
+      <c r="W73" s="8"/>
+    </row>
+    <row r="74">
+      <c r="A74" s="18" t="s">
+        <v>73</v>
+      </c>
+      <c r="B74" s="19"/>
+      <c r="U74" s="11"/>
+      <c r="V74" s="11"/>
+      <c r="W74" s="8"/>
+    </row>
+    <row r="75">
+      <c r="A75" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="B75" s="19"/>
+      <c r="V75" s="11"/>
+      <c r="W75" s="8"/>
+      <c r="X75" s="11"/>
+    </row>
+    <row r="76">
+      <c r="A76" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="B76" s="19"/>
+      <c r="V76" s="11"/>
+      <c r="W76" s="8"/>
+      <c r="X76" s="11"/>
+    </row>
+    <row r="77">
+      <c r="A77" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="B77" s="19"/>
+      <c r="V77" s="11"/>
+      <c r="W77" s="8"/>
+      <c r="X77" s="11"/>
+    </row>
+    <row r="78">
+      <c r="A78" s="18" t="s">
+        <v>77</v>
+      </c>
+      <c r="B78" s="19"/>
+      <c r="W78" s="8"/>
+      <c r="X78" s="11"/>
+    </row>
+    <row r="79">
+      <c r="A79" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="B79" s="19"/>
+      <c r="W79" s="8"/>
+      <c r="X79" s="11"/>
+    </row>
+    <row r="80">
+      <c r="A80" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="B80" s="24" t="s">
+        <v>107</v>
+      </c>
+      <c r="W80" s="8"/>
+      <c r="X80" s="15"/>
+    </row>
+    <row r="81">
+      <c r="A81" s="12"/>
+      <c r="B81" s="24" t="s">
+        <v>108</v>
+      </c>
+      <c r="W81" s="8"/>
+      <c r="X81" s="11"/>
+    </row>
+    <row r="82">
+      <c r="A82" s="12"/>
+      <c r="B82" s="24" t="s">
+        <v>109</v>
+      </c>
+      <c r="W82" s="8"/>
+      <c r="X82" s="11"/>
+    </row>
+    <row r="83">
+      <c r="A83" s="12"/>
+      <c r="B83" s="24" t="s">
+        <v>133</v>
+      </c>
+      <c r="W83" s="8"/>
+      <c r="X83" s="15"/>
+    </row>
+    <row r="84">
+      <c r="A84" s="12"/>
+      <c r="B84" s="24" t="s">
+        <v>111</v>
+      </c>
+      <c r="W84" s="8"/>
+      <c r="X84" s="11"/>
+    </row>
+    <row r="85">
+      <c r="A85" s="12"/>
+      <c r="B85" s="24" t="s">
+        <v>134</v>
+      </c>
+      <c r="W85" s="8"/>
+      <c r="X85" s="11"/>
+    </row>
+    <row r="86">
+      <c r="A86" s="12"/>
+      <c r="B86" s="24" t="s">
+        <v>135</v>
+      </c>
+      <c r="W86" s="8"/>
+      <c r="X86" s="15"/>
+    </row>
+    <row r="87">
+      <c r="A87" s="12"/>
+      <c r="B87" s="24" t="s">
+        <v>136</v>
+      </c>
+      <c r="W87" s="8"/>
+      <c r="X87" s="15"/>
+    </row>
+    <row r="88">
+      <c r="A88" s="12"/>
+      <c r="B88" s="24" t="s">
+        <v>115</v>
+      </c>
+      <c r="W88" s="8"/>
+      <c r="X88" s="15"/>
+    </row>
+    <row r="89">
+      <c r="A89" s="12"/>
+      <c r="B89" s="24" t="s">
+        <v>137</v>
+      </c>
+      <c r="W89" s="8"/>
+      <c r="X89" s="11"/>
+    </row>
+    <row r="90">
+      <c r="A90" s="12"/>
+      <c r="B90" s="24" t="s">
+        <v>138</v>
+      </c>
+      <c r="W90" s="8"/>
+      <c r="X90" s="11"/>
+    </row>
+    <row r="91">
+      <c r="A91" s="12"/>
+      <c r="B91" s="24" t="s">
+        <v>139</v>
+      </c>
+      <c r="W91" s="8"/>
+      <c r="X91" s="15"/>
+    </row>
+    <row r="92">
+      <c r="A92" s="12"/>
+      <c r="B92" s="24" t="s">
+        <v>140</v>
+      </c>
+      <c r="W92" s="8"/>
+      <c r="X92" s="15"/>
+    </row>
+    <row r="93">
+      <c r="A93" s="12"/>
+      <c r="B93" s="24" t="s">
+        <v>141</v>
+      </c>
+      <c r="W93" s="8"/>
+      <c r="X93" s="15"/>
+    </row>
+    <row r="94">
+      <c r="A94" s="12"/>
+      <c r="B94" s="24" t="s">
+        <v>121</v>
+      </c>
+      <c r="W94" s="8"/>
+      <c r="X94" s="11"/>
+    </row>
+    <row r="95">
+      <c r="A95" s="12"/>
+      <c r="B95" s="24" t="s">
+        <v>122</v>
+      </c>
+      <c r="W95" s="8"/>
+      <c r="X95" s="15"/>
+    </row>
+    <row r="96">
+      <c r="A96" s="12"/>
+      <c r="B96" s="24" t="s">
+        <v>123</v>
+      </c>
+      <c r="W96" s="8"/>
+      <c r="X96" s="11"/>
+    </row>
+    <row r="97">
+      <c r="A97" s="12"/>
+      <c r="B97" s="24" t="s">
+        <v>124</v>
+      </c>
+      <c r="W97" s="8"/>
+      <c r="X97" s="15"/>
+    </row>
+    <row r="98">
+      <c r="A98" s="12"/>
+      <c r="B98" s="24" t="s">
+        <v>125</v>
+      </c>
+      <c r="W98" s="8"/>
+      <c r="X98" s="15"/>
+    </row>
+    <row r="99">
+      <c r="A99" s="12"/>
+      <c r="B99" s="24" t="s">
+        <v>142</v>
+      </c>
+      <c r="W99" s="8"/>
+      <c r="X99" s="15"/>
+    </row>
+    <row r="100">
+      <c r="A100" s="12"/>
+      <c r="B100" s="24" t="s">
+        <v>143</v>
+      </c>
+      <c r="W100" s="8"/>
+      <c r="X100" s="15"/>
+    </row>
+    <row r="101">
+      <c r="A101" s="12"/>
+      <c r="B101" s="24" t="s">
+        <v>144</v>
+      </c>
+      <c r="W101" s="8"/>
+      <c r="X101" s="15"/>
+    </row>
+    <row r="102">
+      <c r="A102" s="12"/>
+      <c r="B102" s="24" t="s">
+        <v>129</v>
+      </c>
+      <c r="W102" s="8"/>
+      <c r="X102" s="11"/>
+    </row>
+    <row r="103">
+      <c r="A103" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="W103" s="8"/>
+    </row>
+    <row r="104">
+      <c r="A104" s="20" t="s">
+        <v>80</v>
+      </c>
+      <c r="B104" s="11"/>
+      <c r="W104" s="8"/>
+    </row>
+    <row r="105">
+      <c r="A105" s="20" t="s">
+        <v>81</v>
+      </c>
+      <c r="B105" s="14"/>
+      <c r="W105" s="8"/>
+    </row>
+    <row r="106">
+      <c r="A106" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="B106" s="15"/>
+      <c r="W106" s="8"/>
+    </row>
+    <row r="107">
+      <c r="A107" s="20" t="s">
+        <v>83</v>
+      </c>
+      <c r="B107" s="21"/>
+      <c r="W107" s="8"/>
+    </row>
+    <row r="108">
+      <c r="A108" s="20" t="s">
+        <v>84</v>
+      </c>
+      <c r="B108" s="22"/>
+      <c r="W108" s="8"/>
+    </row>
+    <row r="109">
+      <c r="A109" s="23" t="s">
+        <v>85</v>
+      </c>
+      <c r="B109" s="8"/>
+      <c r="W109" s="8"/>
+    </row>
+    <row r="110">
+      <c r="A110" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="B110" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="W110" s="8"/>
+    </row>
+    <row r="111">
+      <c r="W111" s="8"/>
+    </row>
+    <row r="112">
+      <c r="W112" s="8"/>
+    </row>
+    <row r="113">
+      <c r="W113" s="8"/>
+    </row>
+    <row r="114">
+      <c r="W114" s="8"/>
+    </row>
+    <row r="115">
+      <c r="W115" s="8"/>
+    </row>
+    <row r="116">
+      <c r="W116" s="8"/>
+    </row>
+    <row r="117">
+      <c r="W117" s="8"/>
+    </row>
+    <row r="118">
+      <c r="W118" s="8"/>
+    </row>
+    <row r="119">
+      <c r="W119" s="8"/>
+    </row>
+    <row r="120">
+      <c r="W120" s="8"/>
+    </row>
+    <row r="121">
+      <c r="W121" s="8"/>
+    </row>
+    <row r="122">
+      <c r="W122" s="8"/>
+    </row>
+    <row r="123">
+      <c r="W123" s="8"/>
+    </row>
+    <row r="124">
+      <c r="W124" s="8"/>
+    </row>
+    <row r="125">
+      <c r="W125" s="8"/>
+    </row>
+    <row r="126">
+      <c r="W126" s="8"/>
+    </row>
+    <row r="127">
+      <c r="W127" s="8"/>
+    </row>
+    <row r="128">
+      <c r="W128" s="8"/>
+    </row>
+    <row r="129">
+      <c r="W129" s="8"/>
+    </row>
+    <row r="130">
+      <c r="W130" s="8"/>
+    </row>
+    <row r="131">
+      <c r="W131" s="8"/>
+    </row>
+    <row r="132">
+      <c r="W132" s="8"/>
+    </row>
+    <row r="133">
+      <c r="W133" s="8"/>
+    </row>
+    <row r="134">
+      <c r="W134" s="8"/>
+    </row>
+    <row r="135">
+      <c r="W135" s="8"/>
+    </row>
+    <row r="136">
+      <c r="W136" s="8"/>
+    </row>
+    <row r="137">
+      <c r="W137" s="8"/>
+    </row>
+    <row r="138">
+      <c r="W138" s="8"/>
+    </row>
+    <row r="139">
+      <c r="W139" s="8"/>
+    </row>
+    <row r="140">
+      <c r="W140" s="8"/>
+    </row>
+    <row r="141">
+      <c r="W141" s="8"/>
+    </row>
+    <row r="142">
+      <c r="W142" s="8"/>
+    </row>
+    <row r="143">
+      <c r="W143" s="8"/>
+    </row>
+    <row r="144">
+      <c r="W144" s="8"/>
+    </row>
+    <row r="145">
+      <c r="W145" s="8"/>
+    </row>
+    <row r="146">
+      <c r="W146" s="8"/>
+    </row>
+    <row r="147">
+      <c r="W147" s="8"/>
+    </row>
+    <row r="148">
+      <c r="W148" s="8"/>
+    </row>
+    <row r="149">
+      <c r="W149" s="8"/>
+    </row>
+    <row r="150">
+      <c r="W150" s="8"/>
+    </row>
+    <row r="151">
+      <c r="W151" s="8"/>
+    </row>
+    <row r="152">
+      <c r="W152" s="8"/>
+    </row>
+    <row r="153">
+      <c r="W153" s="8"/>
+    </row>
+    <row r="154">
+      <c r="W154" s="8"/>
+    </row>
+    <row r="155">
+      <c r="W155" s="8"/>
+    </row>
+    <row r="156">
+      <c r="W156" s="8"/>
+    </row>
+    <row r="157">
+      <c r="W157" s="8"/>
+    </row>
+    <row r="158">
+      <c r="W158" s="8"/>
+    </row>
+    <row r="159">
+      <c r="W159" s="8"/>
+    </row>
+    <row r="160">
+      <c r="W160" s="8"/>
+    </row>
+    <row r="161">
+      <c r="W161" s="8"/>
+    </row>
+    <row r="162">
+      <c r="W162" s="8"/>
+    </row>
+    <row r="163">
+      <c r="W163" s="8"/>
+    </row>
+    <row r="164">
+      <c r="W164" s="8"/>
+    </row>
+    <row r="165">
+      <c r="W165" s="8"/>
+    </row>
+    <row r="166">
+      <c r="W166" s="8"/>
+    </row>
+    <row r="167">
+      <c r="W167" s="8"/>
+    </row>
+    <row r="168">
+      <c r="W168" s="8"/>
+    </row>
+    <row r="169">
+      <c r="W169" s="8"/>
+    </row>
+    <row r="170">
+      <c r="W170" s="8"/>
+    </row>
+    <row r="171">
+      <c r="W171" s="8"/>
+    </row>
+    <row r="172">
+      <c r="W172" s="8"/>
+    </row>
+    <row r="173">
+      <c r="W173" s="8"/>
+    </row>
+    <row r="174">
+      <c r="W174" s="8"/>
+    </row>
+    <row r="175">
+      <c r="W175" s="8"/>
+    </row>
+    <row r="176">
+      <c r="W176" s="8"/>
+    </row>
+    <row r="177">
+      <c r="W177" s="8"/>
+    </row>
+    <row r="178">
+      <c r="W178" s="8"/>
+    </row>
+    <row r="179">
+      <c r="W179" s="8"/>
+    </row>
+    <row r="180">
+      <c r="W180" s="8"/>
+    </row>
+    <row r="181">
+      <c r="W181" s="8"/>
+    </row>
+    <row r="182">
+      <c r="W182" s="8"/>
+    </row>
+    <row r="183">
+      <c r="W183" s="8"/>
+    </row>
+    <row r="184">
+      <c r="W184" s="8"/>
+    </row>
+    <row r="185">
+      <c r="W185" s="8"/>
+    </row>
+    <row r="186">
+      <c r="W186" s="8"/>
+    </row>
+    <row r="187">
+      <c r="W187" s="8"/>
+    </row>
+    <row r="188">
+      <c r="W188" s="8"/>
+    </row>
+    <row r="189">
+      <c r="W189" s="8"/>
+    </row>
+    <row r="190">
+      <c r="W190" s="8"/>
+    </row>
+    <row r="191">
+      <c r="W191" s="8"/>
+    </row>
+    <row r="192">
+      <c r="W192" s="8"/>
+    </row>
+    <row r="193">
+      <c r="W193" s="8"/>
+    </row>
+    <row r="194">
+      <c r="W194" s="8"/>
+    </row>
+    <row r="195">
+      <c r="W195" s="8"/>
+    </row>
+    <row r="196">
+      <c r="W196" s="8"/>
+    </row>
+    <row r="197">
+      <c r="W197" s="8"/>
+    </row>
+    <row r="198">
+      <c r="W198" s="8"/>
+    </row>
+    <row r="199">
+      <c r="W199" s="8"/>
+    </row>
+    <row r="200">
+      <c r="W200" s="8"/>
+    </row>
+    <row r="201">
+      <c r="W201" s="8"/>
+    </row>
+    <row r="202">
+      <c r="W202" s="8"/>
+    </row>
+    <row r="203">
+      <c r="W203" s="8"/>
+    </row>
+    <row r="204">
+      <c r="W204" s="8"/>
+    </row>
+    <row r="205">
+      <c r="W205" s="8"/>
+    </row>
+    <row r="206">
+      <c r="W206" s="8"/>
+    </row>
+    <row r="207">
+      <c r="W207" s="8"/>
+    </row>
+    <row r="208">
+      <c r="W208" s="8"/>
+    </row>
+    <row r="209">
+      <c r="W209" s="8"/>
+    </row>
+    <row r="210">
+      <c r="W210" s="8"/>
+    </row>
+    <row r="211">
+      <c r="W211" s="8"/>
+    </row>
+    <row r="212">
+      <c r="W212" s="8"/>
+    </row>
+    <row r="213">
+      <c r="W213" s="8"/>
+    </row>
+    <row r="214">
+      <c r="W214" s="8"/>
+    </row>
+    <row r="215">
+      <c r="W215" s="8"/>
+    </row>
+    <row r="216">
+      <c r="W216" s="8"/>
+    </row>
+    <row r="217">
+      <c r="W217" s="8"/>
+    </row>
+    <row r="218">
+      <c r="W218" s="8"/>
+    </row>
+    <row r="219">
+      <c r="W219" s="8"/>
+    </row>
+    <row r="220">
+      <c r="W220" s="8"/>
+    </row>
+    <row r="221">
+      <c r="W221" s="8"/>
+    </row>
+    <row r="222">
+      <c r="W222" s="8"/>
+    </row>
+    <row r="223">
+      <c r="W223" s="8"/>
+    </row>
+    <row r="224">
+      <c r="W224" s="8"/>
+    </row>
+    <row r="225">
+      <c r="W225" s="8"/>
+    </row>
+    <row r="226">
+      <c r="W226" s="8"/>
+    </row>
+    <row r="227">
+      <c r="W227" s="8"/>
+    </row>
+    <row r="228">
+      <c r="W228" s="8"/>
+    </row>
+    <row r="229">
+      <c r="W229" s="8"/>
+    </row>
+    <row r="230">
+      <c r="W230" s="8"/>
+    </row>
+    <row r="231">
+      <c r="W231" s="8"/>
+    </row>
+    <row r="232">
+      <c r="W232" s="8"/>
+    </row>
+    <row r="233">
+      <c r="W233" s="8"/>
+    </row>
+    <row r="234">
+      <c r="W234" s="8"/>
+    </row>
+    <row r="235">
+      <c r="W235" s="8"/>
+    </row>
+    <row r="236">
+      <c r="W236" s="8"/>
+    </row>
+    <row r="237">
+      <c r="W237" s="8"/>
+    </row>
+    <row r="238">
+      <c r="W238" s="8"/>
+    </row>
+    <row r="239">
+      <c r="W239" s="8"/>
+    </row>
+    <row r="240">
+      <c r="W240" s="8"/>
+    </row>
+    <row r="241">
+      <c r="W241" s="8"/>
+    </row>
+    <row r="242">
+      <c r="W242" s="8"/>
+    </row>
+    <row r="243">
+      <c r="W243" s="8"/>
+    </row>
+    <row r="244">
+      <c r="W244" s="8"/>
+    </row>
+    <row r="245">
+      <c r="W245" s="8"/>
+    </row>
+    <row r="246">
+      <c r="W246" s="8"/>
+    </row>
+    <row r="247">
+      <c r="W247" s="8"/>
+    </row>
+    <row r="248">
+      <c r="W248" s="8"/>
+    </row>
+    <row r="249">
+      <c r="W249" s="8"/>
+    </row>
+    <row r="250">
+      <c r="W250" s="8"/>
+    </row>
+    <row r="251">
+      <c r="W251" s="8"/>
+    </row>
+    <row r="252">
+      <c r="W252" s="8"/>
+    </row>
+    <row r="253">
+      <c r="W253" s="8"/>
+    </row>
+    <row r="254">
+      <c r="W254" s="8"/>
+    </row>
+    <row r="255">
+      <c r="W255" s="8"/>
+    </row>
+    <row r="256">
+      <c r="W256" s="8"/>
+    </row>
+    <row r="257">
+      <c r="W257" s="8"/>
+    </row>
+    <row r="258">
+      <c r="W258" s="8"/>
+    </row>
+    <row r="259">
+      <c r="W259" s="8"/>
+    </row>
+    <row r="260">
+      <c r="W260" s="8"/>
+    </row>
+    <row r="261">
+      <c r="W261" s="8"/>
+    </row>
+    <row r="262">
+      <c r="W262" s="8"/>
+    </row>
+    <row r="263">
+      <c r="W263" s="8"/>
+    </row>
+    <row r="264">
+      <c r="W264" s="8"/>
+    </row>
+    <row r="265">
+      <c r="W265" s="8"/>
+    </row>
+    <row r="266">
+      <c r="W266" s="8"/>
+    </row>
+    <row r="267">
+      <c r="W267" s="8"/>
+    </row>
+    <row r="268">
+      <c r="W268" s="8"/>
+    </row>
+    <row r="269">
+      <c r="W269" s="8"/>
+    </row>
+    <row r="270">
+      <c r="W270" s="8"/>
+    </row>
+    <row r="271">
+      <c r="W271" s="8"/>
+    </row>
+    <row r="272">
+      <c r="W272" s="8"/>
+    </row>
+    <row r="273">
+      <c r="W273" s="8"/>
+    </row>
+    <row r="274">
+      <c r="W274" s="8"/>
+    </row>
+    <row r="275">
+      <c r="W275" s="8"/>
+    </row>
+    <row r="276">
+      <c r="W276" s="8"/>
+    </row>
+    <row r="277">
+      <c r="W277" s="8"/>
+    </row>
+    <row r="278">
+      <c r="W278" s="8"/>
+    </row>
+    <row r="279">
+      <c r="W279" s="8"/>
+    </row>
+    <row r="280">
+      <c r="W280" s="8"/>
+    </row>
+    <row r="281">
+      <c r="W281" s="8"/>
+    </row>
+    <row r="282">
+      <c r="W282" s="8"/>
+    </row>
+    <row r="283">
+      <c r="W283" s="8"/>
+    </row>
+    <row r="284">
+      <c r="W284" s="8"/>
+    </row>
+    <row r="285">
+      <c r="W285" s="8"/>
+    </row>
+    <row r="286">
+      <c r="W286" s="8"/>
+    </row>
+    <row r="287">
+      <c r="W287" s="8"/>
+    </row>
+    <row r="288">
+      <c r="W288" s="8"/>
+    </row>
+    <row r="289">
+      <c r="W289" s="8"/>
+    </row>
+    <row r="290">
+      <c r="W290" s="8"/>
+    </row>
+    <row r="291">
+      <c r="W291" s="8"/>
+    </row>
+    <row r="292">
+      <c r="W292" s="8"/>
+    </row>
+    <row r="293">
+      <c r="W293" s="8"/>
+    </row>
+    <row r="294">
+      <c r="W294" s="8"/>
+    </row>
+    <row r="295">
+      <c r="W295" s="8"/>
+    </row>
+    <row r="296">
+      <c r="W296" s="8"/>
+    </row>
+    <row r="297">
+      <c r="W297" s="8"/>
+    </row>
+    <row r="298">
+      <c r="W298" s="8"/>
+    </row>
+    <row r="299">
+      <c r="W299" s="8"/>
+    </row>
+    <row r="300">
+      <c r="W300" s="8"/>
+    </row>
+    <row r="301">
+      <c r="W301" s="8"/>
+    </row>
+    <row r="302">
+      <c r="W302" s="8"/>
+    </row>
+    <row r="303">
+      <c r="W303" s="8"/>
+    </row>
+    <row r="304">
+      <c r="W304" s="8"/>
+    </row>
+    <row r="305">
+      <c r="W305" s="8"/>
+    </row>
+    <row r="306">
+      <c r="W306" s="8"/>
+    </row>
+    <row r="307">
+      <c r="W307" s="8"/>
+    </row>
+    <row r="308">
+      <c r="W308" s="8"/>
+    </row>
+    <row r="309">
+      <c r="W309" s="8"/>
+    </row>
+    <row r="310">
+      <c r="W310" s="8"/>
+    </row>
+    <row r="311">
+      <c r="W311" s="8"/>
+    </row>
+    <row r="312">
+      <c r="W312" s="8"/>
+    </row>
+    <row r="313">
+      <c r="W313" s="8"/>
+    </row>
+    <row r="314">
+      <c r="W314" s="8"/>
+    </row>
+    <row r="315">
+      <c r="W315" s="8"/>
+    </row>
+    <row r="316">
+      <c r="W316" s="8"/>
+    </row>
+    <row r="317">
+      <c r="W317" s="8"/>
+    </row>
+    <row r="318">
+      <c r="W318" s="8"/>
+    </row>
+    <row r="319">
+      <c r="W319" s="8"/>
+    </row>
+    <row r="320">
+      <c r="W320" s="8"/>
+    </row>
+    <row r="321">
+      <c r="W321" s="8"/>
+    </row>
+    <row r="322">
+      <c r="W322" s="8"/>
+    </row>
+    <row r="323">
+      <c r="W323" s="8"/>
+    </row>
+    <row r="324">
+      <c r="W324" s="8"/>
+    </row>
+    <row r="325">
+      <c r="W325" s="8"/>
+    </row>
+    <row r="326">
+      <c r="W326" s="8"/>
+    </row>
+    <row r="327">
+      <c r="W327" s="8"/>
+    </row>
+    <row r="328">
+      <c r="W328" s="8"/>
+    </row>
+    <row r="329">
+      <c r="W329" s="8"/>
+    </row>
+    <row r="330">
+      <c r="W330" s="8"/>
+    </row>
+    <row r="331">
+      <c r="W331" s="8"/>
+    </row>
+    <row r="332">
+      <c r="W332" s="8"/>
+    </row>
+    <row r="333">
+      <c r="W333" s="8"/>
+    </row>
+    <row r="334">
+      <c r="W334" s="8"/>
+    </row>
+    <row r="335">
+      <c r="W335" s="8"/>
+    </row>
+    <row r="336">
+      <c r="W336" s="8"/>
+    </row>
+    <row r="337">
+      <c r="W337" s="8"/>
+    </row>
+    <row r="338">
+      <c r="W338" s="8"/>
+    </row>
+    <row r="339">
+      <c r="W339" s="8"/>
+    </row>
+    <row r="340">
+      <c r="W340" s="8"/>
+    </row>
+    <row r="341">
+      <c r="W341" s="8"/>
+    </row>
+    <row r="342">
+      <c r="W342" s="8"/>
+    </row>
+    <row r="343">
+      <c r="W343" s="8"/>
+    </row>
+    <row r="344">
+      <c r="W344" s="8"/>
+    </row>
+    <row r="345">
+      <c r="W345" s="8"/>
+    </row>
+    <row r="346">
+      <c r="W346" s="8"/>
+    </row>
+    <row r="347">
+      <c r="W347" s="8"/>
+    </row>
+    <row r="348">
+      <c r="W348" s="8"/>
+    </row>
+    <row r="349">
+      <c r="W349" s="8"/>
+    </row>
+    <row r="350">
+      <c r="W350" s="8"/>
+    </row>
+    <row r="351">
+      <c r="W351" s="8"/>
+    </row>
+    <row r="352">
+      <c r="W352" s="8"/>
+    </row>
+    <row r="353">
+      <c r="W353" s="8"/>
+    </row>
+    <row r="354">
+      <c r="W354" s="8"/>
+    </row>
+    <row r="355">
+      <c r="W355" s="8"/>
+    </row>
+    <row r="356">
+      <c r="W356" s="8"/>
+    </row>
+    <row r="357">
+      <c r="W357" s="8"/>
+    </row>
+    <row r="358">
+      <c r="W358" s="8"/>
+    </row>
+    <row r="359">
+      <c r="W359" s="8"/>
+    </row>
+    <row r="360">
+      <c r="W360" s="8"/>
+    </row>
+    <row r="361">
+      <c r="W361" s="8"/>
+    </row>
+    <row r="362">
+      <c r="W362" s="8"/>
+    </row>
+    <row r="363">
+      <c r="W363" s="8"/>
+    </row>
+    <row r="364">
+      <c r="W364" s="8"/>
+    </row>
+    <row r="365">
+      <c r="W365" s="8"/>
+    </row>
+    <row r="366">
+      <c r="W366" s="8"/>
+    </row>
+    <row r="367">
+      <c r="W367" s="8"/>
+    </row>
+    <row r="368">
+      <c r="W368" s="8"/>
+    </row>
+    <row r="369">
+      <c r="W369" s="8"/>
+    </row>
+    <row r="370">
+      <c r="W370" s="8"/>
+    </row>
+    <row r="371">
+      <c r="W371" s="8"/>
+    </row>
+    <row r="372">
+      <c r="W372" s="8"/>
+    </row>
+    <row r="373">
+      <c r="W373" s="8"/>
+    </row>
+    <row r="374">
+      <c r="W374" s="8"/>
+    </row>
+    <row r="375">
+      <c r="W375" s="8"/>
+    </row>
+    <row r="376">
+      <c r="W376" s="8"/>
+    </row>
+    <row r="377">
+      <c r="W377" s="8"/>
+    </row>
+    <row r="378">
+      <c r="W378" s="8"/>
+    </row>
+    <row r="379">
+      <c r="W379" s="8"/>
+    </row>
+    <row r="380">
+      <c r="W380" s="8"/>
+    </row>
+    <row r="381">
+      <c r="W381" s="8"/>
+    </row>
+    <row r="382">
+      <c r="W382" s="8"/>
+    </row>
+    <row r="383">
+      <c r="W383" s="8"/>
+    </row>
+    <row r="384">
+      <c r="W384" s="8"/>
+    </row>
+    <row r="385">
+      <c r="W385" s="8"/>
+    </row>
+    <row r="386">
+      <c r="W386" s="8"/>
+    </row>
+    <row r="387">
+      <c r="W387" s="8"/>
+    </row>
+    <row r="388">
+      <c r="W388" s="8"/>
+    </row>
+    <row r="389">
+      <c r="W389" s="8"/>
+    </row>
+    <row r="390">
+      <c r="W390" s="8"/>
+    </row>
+    <row r="391">
+      <c r="W391" s="8"/>
+    </row>
+    <row r="392">
+      <c r="W392" s="8"/>
+    </row>
+    <row r="393">
+      <c r="W393" s="8"/>
+    </row>
+    <row r="394">
+      <c r="W394" s="8"/>
+    </row>
+    <row r="395">
+      <c r="W395" s="8"/>
+    </row>
+    <row r="396">
+      <c r="W396" s="8"/>
+    </row>
+    <row r="397">
+      <c r="W397" s="8"/>
+    </row>
+    <row r="398">
+      <c r="W398" s="8"/>
+    </row>
+    <row r="399">
+      <c r="W399" s="8"/>
+    </row>
+    <row r="400">
+      <c r="W400" s="8"/>
+    </row>
+    <row r="401">
+      <c r="W401" s="8"/>
+    </row>
+    <row r="402">
+      <c r="W402" s="8"/>
+    </row>
+    <row r="403">
+      <c r="W403" s="8"/>
+    </row>
+    <row r="404">
+      <c r="W404" s="8"/>
+    </row>
+    <row r="405">
+      <c r="W405" s="8"/>
+    </row>
+    <row r="406">
+      <c r="W406" s="8"/>
+    </row>
+    <row r="407">
+      <c r="W407" s="8"/>
+    </row>
+    <row r="408">
+      <c r="W408" s="8"/>
+    </row>
+    <row r="409">
+      <c r="W409" s="8"/>
+    </row>
+    <row r="410">
+      <c r="W410" s="8"/>
+    </row>
+    <row r="411">
+      <c r="W411" s="8"/>
+    </row>
+    <row r="412">
+      <c r="W412" s="8"/>
+    </row>
+    <row r="413">
+      <c r="W413" s="8"/>
+    </row>
+    <row r="414">
+      <c r="W414" s="8"/>
+    </row>
+    <row r="415">
+      <c r="W415" s="8"/>
+    </row>
+    <row r="416">
+      <c r="W416" s="8"/>
+    </row>
+    <row r="417">
+      <c r="W417" s="8"/>
+    </row>
+    <row r="418">
+      <c r="W418" s="8"/>
+    </row>
+    <row r="419">
+      <c r="W419" s="8"/>
+    </row>
+    <row r="420">
+      <c r="W420" s="8"/>
+    </row>
+    <row r="421">
+      <c r="W421" s="8"/>
+    </row>
+    <row r="422">
+      <c r="W422" s="8"/>
+    </row>
+    <row r="423">
+      <c r="W423" s="8"/>
+    </row>
+    <row r="424">
+      <c r="W424" s="8"/>
+    </row>
+    <row r="425">
+      <c r="W425" s="8"/>
+    </row>
+    <row r="426">
+      <c r="W426" s="8"/>
+    </row>
+    <row r="427">
+      <c r="W427" s="8"/>
+    </row>
+    <row r="428">
+      <c r="W428" s="8"/>
+    </row>
+    <row r="429">
+      <c r="W429" s="8"/>
+    </row>
+    <row r="430">
+      <c r="W430" s="8"/>
+    </row>
+    <row r="431">
+      <c r="W431" s="8"/>
+    </row>
+    <row r="432">
+      <c r="W432" s="8"/>
+    </row>
+    <row r="433">
+      <c r="W433" s="8"/>
+    </row>
+    <row r="434">
+      <c r="W434" s="8"/>
+    </row>
+    <row r="435">
+      <c r="W435" s="8"/>
+    </row>
+    <row r="436">
+      <c r="W436" s="8"/>
+    </row>
+    <row r="437">
+      <c r="W437" s="8"/>
+    </row>
+    <row r="438">
+      <c r="W438" s="8"/>
+    </row>
+    <row r="439">
+      <c r="W439" s="8"/>
+    </row>
+    <row r="440">
+      <c r="W440" s="8"/>
+    </row>
+    <row r="441">
+      <c r="W441" s="8"/>
+    </row>
+    <row r="442">
+      <c r="W442" s="8"/>
+    </row>
+    <row r="443">
+      <c r="W443" s="8"/>
+    </row>
+    <row r="444">
+      <c r="W444" s="8"/>
+    </row>
+    <row r="445">
+      <c r="W445" s="8"/>
+    </row>
+    <row r="446">
+      <c r="W446" s="8"/>
+    </row>
+    <row r="447">
+      <c r="W447" s="8"/>
+    </row>
+    <row r="448">
+      <c r="W448" s="8"/>
+    </row>
+    <row r="449">
+      <c r="W449" s="8"/>
+    </row>
+    <row r="450">
+      <c r="W450" s="8"/>
+    </row>
+    <row r="451">
+      <c r="W451" s="8"/>
+    </row>
+    <row r="452">
+      <c r="W452" s="8"/>
+    </row>
+    <row r="453">
+      <c r="W453" s="8"/>
+    </row>
+    <row r="454">
+      <c r="W454" s="8"/>
+    </row>
+    <row r="455">
+      <c r="W455" s="8"/>
+    </row>
+    <row r="456">
+      <c r="W456" s="8"/>
+    </row>
+    <row r="457">
+      <c r="W457" s="8"/>
+    </row>
+    <row r="458">
+      <c r="W458" s="8"/>
+    </row>
+    <row r="459">
+      <c r="W459" s="8"/>
+    </row>
+    <row r="460">
+      <c r="W460" s="8"/>
+    </row>
+    <row r="461">
+      <c r="W461" s="8"/>
+    </row>
+    <row r="462">
+      <c r="W462" s="8"/>
+    </row>
+    <row r="463">
+      <c r="W463" s="8"/>
+    </row>
+    <row r="464">
+      <c r="W464" s="8"/>
+    </row>
+    <row r="465">
+      <c r="W465" s="8"/>
+    </row>
+    <row r="466">
+      <c r="W466" s="8"/>
+    </row>
+    <row r="467">
+      <c r="W467" s="8"/>
+    </row>
+    <row r="468">
+      <c r="W468" s="8"/>
+    </row>
+    <row r="469">
+      <c r="W469" s="8"/>
+    </row>
+    <row r="470">
+      <c r="W470" s="8"/>
+    </row>
+    <row r="471">
+      <c r="W471" s="8"/>
+    </row>
+    <row r="472">
+      <c r="W472" s="8"/>
+    </row>
+    <row r="473">
+      <c r="W473" s="8"/>
+    </row>
+    <row r="474">
+      <c r="W474" s="8"/>
+    </row>
+    <row r="475">
+      <c r="W475" s="8"/>
+    </row>
+    <row r="476">
+      <c r="W476" s="8"/>
+    </row>
+    <row r="477">
+      <c r="W477" s="8"/>
+    </row>
+    <row r="478">
+      <c r="W478" s="8"/>
+    </row>
+    <row r="479">
+      <c r="W479" s="8"/>
+    </row>
+    <row r="480">
+      <c r="W480" s="8"/>
+    </row>
+    <row r="481">
+      <c r="W481" s="8"/>
+    </row>
+    <row r="482">
+      <c r="W482" s="8"/>
+    </row>
+    <row r="483">
+      <c r="W483" s="8"/>
+    </row>
+    <row r="484">
+      <c r="W484" s="8"/>
+    </row>
+    <row r="485">
+      <c r="W485" s="8"/>
+    </row>
+    <row r="486">
+      <c r="W486" s="8"/>
+    </row>
+    <row r="487">
+      <c r="W487" s="8"/>
+    </row>
+    <row r="488">
+      <c r="W488" s="8"/>
+    </row>
+    <row r="489">
+      <c r="W489" s="8"/>
+    </row>
+    <row r="490">
+      <c r="W490" s="8"/>
+    </row>
+    <row r="491">
+      <c r="W491" s="8"/>
+    </row>
+    <row r="492">
+      <c r="W492" s="8"/>
+    </row>
+    <row r="493">
+      <c r="W493" s="8"/>
+    </row>
+    <row r="494">
+      <c r="W494" s="8"/>
+    </row>
+    <row r="495">
+      <c r="W495" s="8"/>
+    </row>
+    <row r="496">
+      <c r="W496" s="8"/>
+    </row>
+    <row r="497">
+      <c r="W497" s="8"/>
+    </row>
+    <row r="498">
+      <c r="W498" s="8"/>
+    </row>
+    <row r="499">
+      <c r="W499" s="8"/>
+    </row>
+    <row r="500">
+      <c r="W500" s="8"/>
+    </row>
+    <row r="501">
+      <c r="W501" s="8"/>
+    </row>
+    <row r="502">
+      <c r="W502" s="8"/>
+    </row>
+    <row r="503">
+      <c r="W503" s="8"/>
+    </row>
+    <row r="504">
+      <c r="W504" s="8"/>
+    </row>
+    <row r="505">
+      <c r="W505" s="8"/>
+    </row>
+    <row r="506">
+      <c r="W506" s="8"/>
+    </row>
+    <row r="507">
+      <c r="W507" s="8"/>
+    </row>
+    <row r="508">
+      <c r="W508" s="8"/>
+    </row>
+    <row r="509">
+      <c r="W509" s="8"/>
+    </row>
+    <row r="510">
+      <c r="W510" s="8"/>
+    </row>
+    <row r="511">
+      <c r="W511" s="8"/>
+    </row>
+    <row r="512">
+      <c r="W512" s="8"/>
+    </row>
+    <row r="513">
+      <c r="W513" s="8"/>
+    </row>
+    <row r="514">
+      <c r="W514" s="8"/>
+    </row>
+    <row r="515">
+      <c r="W515" s="8"/>
+    </row>
+    <row r="516">
+      <c r="W516" s="8"/>
+    </row>
+    <row r="517">
+      <c r="W517" s="8"/>
+    </row>
+    <row r="518">
+      <c r="W518" s="8"/>
+    </row>
+    <row r="519">
+      <c r="W519" s="8"/>
+    </row>
+    <row r="520">
+      <c r="W520" s="8"/>
+    </row>
+    <row r="521">
+      <c r="W521" s="8"/>
+    </row>
+    <row r="522">
+      <c r="W522" s="8"/>
+    </row>
+    <row r="523">
+      <c r="W523" s="8"/>
+    </row>
+    <row r="524">
+      <c r="W524" s="8"/>
+    </row>
+    <row r="525">
+      <c r="W525" s="8"/>
+    </row>
+    <row r="526">
+      <c r="W526" s="8"/>
+    </row>
+    <row r="527">
+      <c r="W527" s="8"/>
+    </row>
+    <row r="528">
+      <c r="W528" s="8"/>
+    </row>
+    <row r="529">
+      <c r="W529" s="8"/>
+    </row>
+    <row r="530">
+      <c r="W530" s="8"/>
+    </row>
+    <row r="531">
+      <c r="W531" s="8"/>
+    </row>
+    <row r="532">
+      <c r="W532" s="8"/>
+    </row>
+    <row r="533">
+      <c r="W533" s="8"/>
+    </row>
+    <row r="534">
+      <c r="W534" s="8"/>
+    </row>
+    <row r="535">
+      <c r="W535" s="8"/>
+    </row>
+    <row r="536">
+      <c r="W536" s="8"/>
+    </row>
+    <row r="537">
+      <c r="W537" s="8"/>
+    </row>
+    <row r="538">
+      <c r="W538" s="8"/>
+    </row>
+    <row r="539">
+      <c r="W539" s="8"/>
+    </row>
+    <row r="540">
+      <c r="W540" s="8"/>
+    </row>
+    <row r="541">
+      <c r="W541" s="8"/>
+    </row>
+    <row r="542">
+      <c r="W542" s="8"/>
+    </row>
+    <row r="543">
+      <c r="W543" s="8"/>
+    </row>
+    <row r="544">
+      <c r="W544" s="8"/>
+    </row>
+    <row r="545">
+      <c r="W545" s="8"/>
+    </row>
+    <row r="546">
+      <c r="W546" s="8"/>
+    </row>
+    <row r="547">
+      <c r="W547" s="8"/>
+    </row>
+    <row r="548">
+      <c r="W548" s="8"/>
+    </row>
+    <row r="549">
+      <c r="W549" s="8"/>
+    </row>
+    <row r="550">
+      <c r="W550" s="8"/>
+    </row>
+    <row r="551">
+      <c r="W551" s="8"/>
+    </row>
+    <row r="552">
+      <c r="W552" s="8"/>
+    </row>
+    <row r="553">
+      <c r="W553" s="8"/>
+    </row>
+    <row r="554">
+      <c r="W554" s="8"/>
+    </row>
+    <row r="555">
+      <c r="W555" s="8"/>
+    </row>
+    <row r="556">
+      <c r="W556" s="8"/>
+    </row>
+    <row r="557">
+      <c r="W557" s="8"/>
+    </row>
+    <row r="558">
+      <c r="W558" s="8"/>
+    </row>
+    <row r="559">
+      <c r="W559" s="8"/>
+    </row>
+    <row r="560">
+      <c r="W560" s="8"/>
+    </row>
+    <row r="561">
+      <c r="W561" s="8"/>
+    </row>
+    <row r="562">
+      <c r="W562" s="8"/>
+    </row>
+    <row r="563">
+      <c r="W563" s="8"/>
+    </row>
+    <row r="564">
+      <c r="W564" s="8"/>
+    </row>
+    <row r="565">
+      <c r="W565" s="8"/>
+    </row>
+    <row r="566">
+      <c r="W566" s="8"/>
+    </row>
+    <row r="567">
+      <c r="W567" s="8"/>
+    </row>
+    <row r="568">
+      <c r="W568" s="8"/>
+    </row>
+    <row r="569">
+      <c r="W569" s="8"/>
+    </row>
+    <row r="570">
+      <c r="W570" s="8"/>
+    </row>
+    <row r="571">
+      <c r="W571" s="8"/>
+    </row>
+    <row r="572">
+      <c r="W572" s="8"/>
+    </row>
+    <row r="573">
+      <c r="W573" s="8"/>
+    </row>
+    <row r="574">
+      <c r="W574" s="8"/>
+    </row>
+    <row r="575">
+      <c r="W575" s="8"/>
+    </row>
+    <row r="576">
+      <c r="W576" s="8"/>
+    </row>
+    <row r="577">
+      <c r="W577" s="8"/>
+    </row>
+    <row r="578">
+      <c r="W578" s="8"/>
+    </row>
+    <row r="579">
+      <c r="W579" s="8"/>
+    </row>
+    <row r="580">
+      <c r="W580" s="8"/>
+    </row>
+    <row r="581">
+      <c r="W581" s="8"/>
+    </row>
+    <row r="582">
+      <c r="W582" s="8"/>
+    </row>
+    <row r="583">
+      <c r="W583" s="8"/>
+    </row>
+    <row r="584">
+      <c r="W584" s="8"/>
+    </row>
+    <row r="585">
+      <c r="W585" s="8"/>
+    </row>
+    <row r="586">
+      <c r="W586" s="8"/>
+    </row>
+    <row r="587">
+      <c r="W587" s="8"/>
+    </row>
+    <row r="588">
+      <c r="W588" s="8"/>
+    </row>
+    <row r="589">
+      <c r="W589" s="8"/>
+    </row>
+    <row r="590">
+      <c r="W590" s="8"/>
+    </row>
+    <row r="591">
+      <c r="W591" s="8"/>
+    </row>
+    <row r="592">
+      <c r="W592" s="8"/>
+    </row>
+    <row r="593">
+      <c r="W593" s="8"/>
+    </row>
+    <row r="594">
+      <c r="W594" s="8"/>
+    </row>
+    <row r="595">
+      <c r="W595" s="8"/>
+    </row>
+    <row r="596">
+      <c r="W596" s="8"/>
+    </row>
+    <row r="597">
+      <c r="W597" s="8"/>
+    </row>
+    <row r="598">
+      <c r="W598" s="8"/>
+    </row>
+    <row r="599">
+      <c r="W599" s="8"/>
+    </row>
+    <row r="600">
+      <c r="W600" s="8"/>
+    </row>
+    <row r="601">
+      <c r="W601" s="8"/>
+    </row>
+    <row r="602">
+      <c r="W602" s="8"/>
+    </row>
+    <row r="603">
+      <c r="W603" s="8"/>
+    </row>
+    <row r="604">
+      <c r="W604" s="8"/>
+    </row>
+    <row r="605">
+      <c r="W605" s="8"/>
+    </row>
+    <row r="606">
+      <c r="W606" s="8"/>
+    </row>
+    <row r="607">
+      <c r="W607" s="8"/>
+    </row>
+    <row r="608">
+      <c r="W608" s="8"/>
+    </row>
+    <row r="609">
+      <c r="W609" s="8"/>
+    </row>
+    <row r="610">
+      <c r="W610" s="8"/>
+    </row>
+    <row r="611">
+      <c r="W611" s="8"/>
+    </row>
+    <row r="612">
+      <c r="W612" s="8"/>
+    </row>
+    <row r="613">
+      <c r="W613" s="8"/>
+    </row>
+    <row r="614">
+      <c r="W614" s="8"/>
+    </row>
+    <row r="615">
+      <c r="W615" s="8"/>
+    </row>
+    <row r="616">
+      <c r="W616" s="8"/>
+    </row>
+    <row r="617">
+      <c r="W617" s="8"/>
+    </row>
+    <row r="618">
+      <c r="W618" s="8"/>
+    </row>
+    <row r="619">
+      <c r="W619" s="8"/>
+    </row>
+    <row r="620">
+      <c r="W620" s="8"/>
+    </row>
+    <row r="621">
+      <c r="W621" s="8"/>
+    </row>
+    <row r="622">
+      <c r="W622" s="8"/>
+    </row>
+    <row r="623">
+      <c r="W623" s="8"/>
+    </row>
+    <row r="624">
+      <c r="W624" s="8"/>
+    </row>
+    <row r="625">
+      <c r="W625" s="8"/>
+    </row>
+    <row r="626">
+      <c r="W626" s="8"/>
+    </row>
+    <row r="627">
+      <c r="W627" s="8"/>
+    </row>
+    <row r="628">
+      <c r="W628" s="8"/>
+    </row>
+    <row r="629">
+      <c r="W629" s="8"/>
+    </row>
+    <row r="630">
+      <c r="W630" s="8"/>
+    </row>
+    <row r="631">
+      <c r="W631" s="8"/>
+    </row>
+    <row r="632">
+      <c r="W632" s="8"/>
+    </row>
+    <row r="633">
+      <c r="W633" s="8"/>
+    </row>
+    <row r="634">
+      <c r="W634" s="8"/>
+    </row>
+    <row r="635">
+      <c r="W635" s="8"/>
+    </row>
+    <row r="636">
+      <c r="W636" s="8"/>
+    </row>
+    <row r="637">
+      <c r="W637" s="8"/>
+    </row>
+    <row r="638">
+      <c r="W638" s="8"/>
+    </row>
+    <row r="639">
+      <c r="W639" s="8"/>
+    </row>
+    <row r="640">
+      <c r="W640" s="8"/>
+    </row>
+    <row r="641">
+      <c r="W641" s="8"/>
+    </row>
+    <row r="642">
+      <c r="W642" s="8"/>
+    </row>
+    <row r="643">
+      <c r="W643" s="8"/>
+    </row>
+    <row r="644">
+      <c r="W644" s="8"/>
+    </row>
+    <row r="645">
+      <c r="W645" s="8"/>
+    </row>
+    <row r="646">
+      <c r="W646" s="8"/>
+    </row>
+    <row r="647">
+      <c r="W647" s="8"/>
+    </row>
+    <row r="648">
+      <c r="W648" s="8"/>
+    </row>
+    <row r="649">
+      <c r="W649" s="8"/>
+    </row>
+    <row r="650">
+      <c r="W650" s="8"/>
+    </row>
+    <row r="651">
+      <c r="W651" s="8"/>
+    </row>
+    <row r="652">
+      <c r="W652" s="8"/>
+    </row>
+    <row r="653">
+      <c r="W653" s="8"/>
+    </row>
+    <row r="654">
+      <c r="W654" s="8"/>
+    </row>
+    <row r="655">
+      <c r="W655" s="8"/>
+    </row>
+    <row r="656">
+      <c r="W656" s="8"/>
+    </row>
+    <row r="657">
+      <c r="W657" s="8"/>
+    </row>
+    <row r="658">
+      <c r="W658" s="8"/>
+    </row>
+    <row r="659">
+      <c r="W659" s="8"/>
+    </row>
+    <row r="660">
+      <c r="W660" s="8"/>
+    </row>
+    <row r="661">
+      <c r="W661" s="8"/>
+    </row>
+    <row r="662">
+      <c r="W662" s="8"/>
+    </row>
+    <row r="663">
+      <c r="W663" s="8"/>
+    </row>
+    <row r="664">
+      <c r="W664" s="8"/>
+    </row>
+    <row r="665">
+      <c r="W665" s="8"/>
+    </row>
+    <row r="666">
+      <c r="W666" s="8"/>
+    </row>
+    <row r="667">
+      <c r="W667" s="8"/>
+    </row>
+    <row r="668">
+      <c r="W668" s="8"/>
+    </row>
+    <row r="669">
+      <c r="W669" s="8"/>
+    </row>
+    <row r="670">
+      <c r="W670" s="8"/>
+    </row>
+    <row r="671">
+      <c r="W671" s="8"/>
+    </row>
+    <row r="672">
+      <c r="W672" s="8"/>
+    </row>
+    <row r="673">
+      <c r="W673" s="8"/>
+    </row>
+    <row r="674">
+      <c r="W674" s="8"/>
+    </row>
+    <row r="675">
+      <c r="W675" s="8"/>
+    </row>
+    <row r="676">
+      <c r="W676" s="8"/>
+    </row>
+    <row r="677">
+      <c r="W677" s="8"/>
+    </row>
+    <row r="678">
+      <c r="W678" s="8"/>
+    </row>
+    <row r="679">
+      <c r="W679" s="8"/>
+    </row>
+    <row r="680">
+      <c r="W680" s="8"/>
+    </row>
+    <row r="681">
+      <c r="W681" s="8"/>
+    </row>
+    <row r="682">
+      <c r="W682" s="8"/>
+    </row>
+    <row r="683">
+      <c r="W683" s="8"/>
+    </row>
+    <row r="684">
+      <c r="W684" s="8"/>
+    </row>
+    <row r="685">
+      <c r="W685" s="8"/>
+    </row>
+    <row r="686">
+      <c r="W686" s="8"/>
+    </row>
+    <row r="687">
+      <c r="W687" s="8"/>
+    </row>
+    <row r="688">
+      <c r="W688" s="8"/>
+    </row>
+    <row r="689">
+      <c r="W689" s="8"/>
+    </row>
+    <row r="690">
+      <c r="W690" s="8"/>
+    </row>
+    <row r="691">
+      <c r="W691" s="8"/>
+    </row>
+    <row r="692">
+      <c r="W692" s="8"/>
+    </row>
+    <row r="693">
+      <c r="W693" s="8"/>
+    </row>
+    <row r="694">
+      <c r="W694" s="8"/>
+    </row>
+    <row r="695">
+      <c r="W695" s="8"/>
+    </row>
+    <row r="696">
+      <c r="W696" s="8"/>
+    </row>
+    <row r="697">
+      <c r="W697" s="8"/>
+    </row>
+    <row r="698">
+      <c r="W698" s="8"/>
+    </row>
+    <row r="699">
+      <c r="W699" s="8"/>
+    </row>
+    <row r="700">
+      <c r="W700" s="8"/>
+    </row>
+    <row r="701">
+      <c r="W701" s="8"/>
+    </row>
+    <row r="702">
+      <c r="W702" s="8"/>
+    </row>
+    <row r="703">
+      <c r="W703" s="8"/>
+    </row>
+    <row r="704">
+      <c r="W704" s="8"/>
+    </row>
+    <row r="705">
+      <c r="W705" s="8"/>
+    </row>
+    <row r="706">
+      <c r="W706" s="8"/>
+    </row>
+    <row r="707">
+      <c r="W707" s="8"/>
+    </row>
+    <row r="708">
+      <c r="W708" s="8"/>
+    </row>
+    <row r="709">
+      <c r="W709" s="8"/>
+    </row>
+    <row r="710">
+      <c r="W710" s="8"/>
+    </row>
+    <row r="711">
+      <c r="W711" s="8"/>
+    </row>
+    <row r="712">
+      <c r="W712" s="8"/>
+    </row>
+    <row r="713">
+      <c r="W713" s="8"/>
+    </row>
+    <row r="714">
+      <c r="W714" s="8"/>
+    </row>
+    <row r="715">
+      <c r="W715" s="8"/>
+    </row>
+    <row r="716">
+      <c r="W716" s="8"/>
+    </row>
+    <row r="717">
+      <c r="W717" s="8"/>
+    </row>
+    <row r="718">
+      <c r="W718" s="8"/>
+    </row>
+    <row r="719">
+      <c r="W719" s="8"/>
+    </row>
+    <row r="720">
+      <c r="W720" s="8"/>
+    </row>
+    <row r="721">
+      <c r="W721" s="8"/>
+    </row>
+    <row r="722">
+      <c r="W722" s="8"/>
+    </row>
+    <row r="723">
+      <c r="W723" s="8"/>
+    </row>
+    <row r="724">
+      <c r="W724" s="8"/>
+    </row>
+    <row r="725">
+      <c r="W725" s="8"/>
+    </row>
+    <row r="726">
+      <c r="W726" s="8"/>
+    </row>
+    <row r="727">
+      <c r="W727" s="8"/>
+    </row>
+    <row r="728">
+      <c r="W728" s="8"/>
+    </row>
+    <row r="729">
+      <c r="W729" s="8"/>
+    </row>
+    <row r="730">
+      <c r="W730" s="8"/>
+    </row>
+    <row r="731">
+      <c r="W731" s="8"/>
+    </row>
+    <row r="732">
+      <c r="W732" s="8"/>
+    </row>
+    <row r="733">
+      <c r="W733" s="8"/>
+    </row>
+    <row r="734">
+      <c r="W734" s="8"/>
+    </row>
+    <row r="735">
+      <c r="W735" s="8"/>
+    </row>
+    <row r="736">
+      <c r="W736" s="8"/>
+    </row>
+    <row r="737">
+      <c r="W737" s="8"/>
+    </row>
+    <row r="738">
+      <c r="W738" s="8"/>
+    </row>
+    <row r="739">
+      <c r="W739" s="8"/>
+    </row>
+    <row r="740">
+      <c r="W740" s="8"/>
+    </row>
+    <row r="741">
+      <c r="W741" s="8"/>
+    </row>
+    <row r="742">
+      <c r="W742" s="8"/>
+    </row>
+    <row r="743">
+      <c r="W743" s="8"/>
+    </row>
+    <row r="744">
+      <c r="W744" s="8"/>
+    </row>
+    <row r="745">
+      <c r="W745" s="8"/>
+    </row>
+    <row r="746">
+      <c r="W746" s="8"/>
+    </row>
+    <row r="747">
+      <c r="W747" s="8"/>
+    </row>
+    <row r="748">
+      <c r="W748" s="8"/>
+    </row>
+    <row r="749">
+      <c r="W749" s="8"/>
+    </row>
+    <row r="750">
+      <c r="W750" s="8"/>
+    </row>
+    <row r="751">
+      <c r="W751" s="8"/>
+    </row>
+    <row r="752">
+      <c r="W752" s="8"/>
+    </row>
+    <row r="753">
+      <c r="W753" s="8"/>
+    </row>
+    <row r="754">
+      <c r="W754" s="8"/>
+    </row>
+    <row r="755">
+      <c r="W755" s="8"/>
+    </row>
+    <row r="756">
+      <c r="W756" s="8"/>
+    </row>
+    <row r="757">
+      <c r="W757" s="8"/>
+    </row>
+    <row r="758">
+      <c r="W758" s="8"/>
+    </row>
+    <row r="759">
+      <c r="W759" s="8"/>
+    </row>
+    <row r="760">
+      <c r="W760" s="8"/>
+    </row>
+    <row r="761">
+      <c r="W761" s="8"/>
+    </row>
+    <row r="762">
+      <c r="W762" s="8"/>
+    </row>
+    <row r="763">
+      <c r="W763" s="8"/>
+    </row>
+    <row r="764">
+      <c r="W764" s="8"/>
+    </row>
+    <row r="765">
+      <c r="W765" s="8"/>
+    </row>
+    <row r="766">
+      <c r="W766" s="8"/>
+    </row>
+    <row r="767">
+      <c r="W767" s="8"/>
+    </row>
+    <row r="768">
+      <c r="W768" s="8"/>
+    </row>
+    <row r="769">
+      <c r="W769" s="8"/>
+    </row>
+    <row r="770">
+      <c r="W770" s="8"/>
+    </row>
+    <row r="771">
+      <c r="W771" s="8"/>
+    </row>
+    <row r="772">
+      <c r="W772" s="8"/>
+    </row>
+    <row r="773">
+      <c r="W773" s="8"/>
+    </row>
+    <row r="774">
+      <c r="W774" s="8"/>
+    </row>
+    <row r="775">
+      <c r="W775" s="8"/>
+    </row>
+    <row r="776">
+      <c r="W776" s="8"/>
+    </row>
+    <row r="777">
+      <c r="W777" s="8"/>
+    </row>
+    <row r="778">
+      <c r="W778" s="8"/>
+    </row>
+    <row r="779">
+      <c r="W779" s="8"/>
+    </row>
+    <row r="780">
+      <c r="W780" s="8"/>
+    </row>
+    <row r="781">
+      <c r="W781" s="8"/>
+    </row>
+    <row r="782">
+      <c r="W782" s="8"/>
+    </row>
+    <row r="783">
+      <c r="W783" s="8"/>
+    </row>
+    <row r="784">
+      <c r="W784" s="8"/>
+    </row>
+    <row r="785">
+      <c r="W785" s="8"/>
+    </row>
+    <row r="786">
+      <c r="W786" s="8"/>
+    </row>
+    <row r="787">
+      <c r="W787" s="8"/>
+    </row>
+    <row r="788">
+      <c r="W788" s="8"/>
+    </row>
+    <row r="789">
+      <c r="W789" s="8"/>
+    </row>
+    <row r="790">
+      <c r="W790" s="8"/>
+    </row>
+    <row r="791">
+      <c r="W791" s="8"/>
+    </row>
+    <row r="792">
+      <c r="W792" s="8"/>
+    </row>
+    <row r="793">
+      <c r="W793" s="8"/>
+    </row>
+    <row r="794">
+      <c r="W794" s="8"/>
+    </row>
+    <row r="795">
+      <c r="W795" s="8"/>
+    </row>
+    <row r="796">
+      <c r="W796" s="8"/>
+    </row>
+    <row r="797">
+      <c r="W797" s="8"/>
+    </row>
+    <row r="798">
+      <c r="W798" s="8"/>
+    </row>
+    <row r="799">
+      <c r="W799" s="8"/>
+    </row>
+    <row r="800">
+      <c r="W800" s="8"/>
+    </row>
+    <row r="801">
+      <c r="W801" s="8"/>
+    </row>
+    <row r="802">
+      <c r="W802" s="8"/>
+    </row>
+    <row r="803">
+      <c r="W803" s="8"/>
+    </row>
+    <row r="804">
+      <c r="W804" s="8"/>
+    </row>
+    <row r="805">
+      <c r="W805" s="8"/>
+    </row>
+    <row r="806">
+      <c r="W806" s="8"/>
+    </row>
+    <row r="807">
+      <c r="W807" s="8"/>
+    </row>
+    <row r="808">
+      <c r="W808" s="8"/>
+    </row>
+    <row r="809">
+      <c r="W809" s="8"/>
+    </row>
+    <row r="810">
+      <c r="W810" s="8"/>
+    </row>
+    <row r="811">
+      <c r="W811" s="8"/>
+    </row>
+    <row r="812">
+      <c r="W812" s="8"/>
+    </row>
+    <row r="813">
+      <c r="W813" s="8"/>
+    </row>
+    <row r="814">
+      <c r="W814" s="8"/>
+    </row>
+    <row r="815">
+      <c r="W815" s="8"/>
+    </row>
+    <row r="816">
+      <c r="W816" s="8"/>
+    </row>
+    <row r="817">
+      <c r="W817" s="8"/>
+    </row>
+    <row r="818">
+      <c r="W818" s="8"/>
+    </row>
+    <row r="819">
+      <c r="W819" s="8"/>
+    </row>
+    <row r="820">
+      <c r="W820" s="8"/>
+    </row>
+    <row r="821">
+      <c r="W821" s="8"/>
+    </row>
+    <row r="822">
+      <c r="W822" s="8"/>
+    </row>
+    <row r="823">
+      <c r="W823" s="8"/>
+    </row>
+    <row r="824">
+      <c r="W824" s="8"/>
+    </row>
+    <row r="825">
+      <c r="W825" s="8"/>
+    </row>
+    <row r="826">
+      <c r="W826" s="8"/>
+    </row>
+    <row r="827">
+      <c r="W827" s="8"/>
+    </row>
+    <row r="828">
+      <c r="W828" s="8"/>
+    </row>
+    <row r="829">
+      <c r="W829" s="8"/>
+    </row>
+    <row r="830">
+      <c r="W830" s="8"/>
+    </row>
+    <row r="831">
+      <c r="W831" s="8"/>
+    </row>
+    <row r="832">
+      <c r="W832" s="8"/>
+    </row>
+    <row r="833">
+      <c r="W833" s="8"/>
+    </row>
+    <row r="834">
+      <c r="W834" s="8"/>
+    </row>
+    <row r="835">
+      <c r="W835" s="8"/>
+    </row>
+    <row r="836">
+      <c r="W836" s="8"/>
+    </row>
+    <row r="837">
+      <c r="W837" s="8"/>
+    </row>
+    <row r="838">
+      <c r="W838" s="8"/>
+    </row>
+    <row r="839">
+      <c r="W839" s="8"/>
+    </row>
+    <row r="840">
+      <c r="W840" s="8"/>
+    </row>
+    <row r="841">
+      <c r="W841" s="8"/>
+    </row>
+    <row r="842">
+      <c r="W842" s="8"/>
+    </row>
+    <row r="843">
+      <c r="W843" s="8"/>
+    </row>
+    <row r="844">
+      <c r="W844" s="8"/>
+    </row>
+    <row r="845">
+      <c r="W845" s="8"/>
+    </row>
+    <row r="846">
+      <c r="W846" s="8"/>
+    </row>
+    <row r="847">
+      <c r="W847" s="8"/>
+    </row>
+    <row r="848">
+      <c r="W848" s="8"/>
+    </row>
+    <row r="849">
+      <c r="W849" s="8"/>
+    </row>
+    <row r="850">
+      <c r="W850" s="8"/>
+    </row>
+    <row r="851">
+      <c r="W851" s="8"/>
+    </row>
+    <row r="852">
+      <c r="W852" s="8"/>
+    </row>
+    <row r="853">
+      <c r="W853" s="8"/>
+    </row>
+    <row r="854">
+      <c r="W854" s="8"/>
+    </row>
+    <row r="855">
+      <c r="W855" s="8"/>
+    </row>
+    <row r="856">
+      <c r="W856" s="8"/>
+    </row>
+    <row r="857">
+      <c r="W857" s="8"/>
+    </row>
+    <row r="858">
+      <c r="W858" s="8"/>
+    </row>
+    <row r="859">
+      <c r="W859" s="8"/>
+    </row>
+    <row r="860">
+      <c r="W860" s="8"/>
+    </row>
+    <row r="861">
+      <c r="W861" s="8"/>
+    </row>
+    <row r="862">
+      <c r="W862" s="8"/>
+    </row>
+    <row r="863">
+      <c r="W863" s="8"/>
+    </row>
+    <row r="864">
+      <c r="W864" s="8"/>
+    </row>
+    <row r="865">
+      <c r="W865" s="8"/>
+    </row>
+    <row r="866">
+      <c r="W866" s="8"/>
+    </row>
+    <row r="867">
+      <c r="W867" s="8"/>
+    </row>
+    <row r="868">
+      <c r="W868" s="8"/>
+    </row>
+    <row r="869">
+      <c r="W869" s="8"/>
+    </row>
+    <row r="870">
+      <c r="W870" s="8"/>
+    </row>
+    <row r="871">
+      <c r="W871" s="8"/>
+    </row>
+    <row r="872">
+      <c r="W872" s="8"/>
+    </row>
+    <row r="873">
+      <c r="W873" s="8"/>
+    </row>
+    <row r="874">
+      <c r="W874" s="8"/>
+    </row>
+    <row r="875">
+      <c r="W875" s="8"/>
+    </row>
+    <row r="876">
+      <c r="W876" s="8"/>
+    </row>
+    <row r="877">
+      <c r="W877" s="8"/>
+    </row>
+    <row r="878">
+      <c r="W878" s="8"/>
+    </row>
+    <row r="879">
+      <c r="W879" s="8"/>
+    </row>
+    <row r="880">
+      <c r="W880" s="8"/>
+    </row>
+    <row r="881">
+      <c r="W881" s="8"/>
+    </row>
+    <row r="882">
+      <c r="W882" s="8"/>
+    </row>
+    <row r="883">
+      <c r="W883" s="8"/>
+    </row>
+    <row r="884">
+      <c r="W884" s="8"/>
+    </row>
+    <row r="885">
+      <c r="W885" s="8"/>
+    </row>
+    <row r="886">
+      <c r="W886" s="8"/>
+    </row>
+    <row r="887">
+      <c r="W887" s="8"/>
+    </row>
+    <row r="888">
+      <c r="W888" s="8"/>
+    </row>
+    <row r="889">
+      <c r="W889" s="8"/>
+    </row>
+    <row r="890">
+      <c r="W890" s="8"/>
+    </row>
+    <row r="891">
+      <c r="W891" s="8"/>
+    </row>
+    <row r="892">
+      <c r="W892" s="8"/>
+    </row>
+    <row r="893">
+      <c r="W893" s="8"/>
+    </row>
+    <row r="894">
+      <c r="W894" s="8"/>
+    </row>
+    <row r="895">
+      <c r="W895" s="8"/>
+    </row>
+    <row r="896">
+      <c r="W896" s="8"/>
+    </row>
+    <row r="897">
+      <c r="W897" s="8"/>
+    </row>
+    <row r="898">
+      <c r="W898" s="8"/>
+    </row>
+    <row r="899">
+      <c r="W899" s="8"/>
+    </row>
+    <row r="900">
+      <c r="W900" s="8"/>
+    </row>
+    <row r="901">
+      <c r="W901" s="8"/>
+    </row>
+    <row r="902">
+      <c r="W902" s="8"/>
+    </row>
+    <row r="903">
+      <c r="W903" s="8"/>
+    </row>
+    <row r="904">
+      <c r="W904" s="8"/>
+    </row>
+    <row r="905">
+      <c r="W905" s="8"/>
+    </row>
+    <row r="906">
+      <c r="W906" s="8"/>
+    </row>
+    <row r="907">
+      <c r="W907" s="8"/>
+    </row>
+    <row r="908">
+      <c r="W908" s="8"/>
+    </row>
+    <row r="909">
+      <c r="W909" s="8"/>
+    </row>
+    <row r="910">
+      <c r="W910" s="8"/>
+    </row>
+    <row r="911">
+      <c r="W911" s="8"/>
+    </row>
+    <row r="912">
+      <c r="W912" s="8"/>
+    </row>
+    <row r="913">
+      <c r="W913" s="8"/>
+    </row>
+    <row r="914">
+      <c r="W914" s="8"/>
+    </row>
+    <row r="915">
+      <c r="W915" s="8"/>
+    </row>
+    <row r="916">
+      <c r="W916" s="8"/>
+    </row>
+    <row r="917">
+      <c r="W917" s="8"/>
+    </row>
+    <row r="918">
+      <c r="W918" s="8"/>
+    </row>
+    <row r="919">
+      <c r="W919" s="8"/>
+    </row>
+    <row r="920">
+      <c r="W920" s="8"/>
+    </row>
+    <row r="921">
+      <c r="W921" s="8"/>
+    </row>
+    <row r="922">
+      <c r="W922" s="8"/>
+    </row>
+    <row r="923">
+      <c r="W923" s="8"/>
+    </row>
+    <row r="924">
+      <c r="W924" s="8"/>
+    </row>
+    <row r="925">
+      <c r="W925" s="8"/>
+    </row>
+    <row r="926">
+      <c r="W926" s="8"/>
+    </row>
+    <row r="927">
+      <c r="W927" s="8"/>
+    </row>
+    <row r="928">
+      <c r="W928" s="8"/>
+    </row>
+    <row r="929">
+      <c r="W929" s="8"/>
+    </row>
+    <row r="930">
+      <c r="W930" s="8"/>
+    </row>
+    <row r="931">
+      <c r="W931" s="8"/>
+    </row>
+    <row r="932">
+      <c r="W932" s="8"/>
+    </row>
+    <row r="933">
+      <c r="W933" s="8"/>
+    </row>
+    <row r="934">
+      <c r="W934" s="8"/>
+    </row>
+    <row r="935">
+      <c r="W935" s="8"/>
+    </row>
+    <row r="936">
+      <c r="W936" s="8"/>
+    </row>
+    <row r="937">
+      <c r="W937" s="8"/>
+    </row>
+    <row r="938">
+      <c r="W938" s="8"/>
+    </row>
+    <row r="939">
+      <c r="W939" s="8"/>
+    </row>
+    <row r="940">
+      <c r="W940" s="8"/>
+    </row>
+    <row r="941">
+      <c r="W941" s="8"/>
+    </row>
+    <row r="942">
+      <c r="W942" s="8"/>
+    </row>
+    <row r="943">
+      <c r="W943" s="8"/>
+    </row>
+    <row r="944">
+      <c r="W944" s="8"/>
+    </row>
+    <row r="945">
+      <c r="W945" s="8"/>
+    </row>
+    <row r="946">
+      <c r="W946" s="8"/>
+    </row>
+    <row r="947">
+      <c r="W947" s="8"/>
+    </row>
+    <row r="948">
+      <c r="W948" s="8"/>
+    </row>
+    <row r="949">
+      <c r="W949" s="8"/>
+    </row>
+    <row r="950">
+      <c r="W950" s="8"/>
+    </row>
+    <row r="951">
+      <c r="W951" s="8"/>
+    </row>
+    <row r="952">
+      <c r="W952" s="8"/>
+    </row>
+    <row r="953">
+      <c r="W953" s="8"/>
+    </row>
+    <row r="954">
+      <c r="W954" s="8"/>
+    </row>
+    <row r="955">
+      <c r="W955" s="8"/>
+    </row>
+    <row r="956">
+      <c r="W956" s="8"/>
+    </row>
+    <row r="957">
+      <c r="W957" s="8"/>
+    </row>
+    <row r="958">
+      <c r="W958" s="8"/>
+    </row>
+    <row r="959">
+      <c r="W959" s="8"/>
+    </row>
+    <row r="960">
+      <c r="W960" s="8"/>
+    </row>
+    <row r="961">
+      <c r="W961" s="8"/>
+    </row>
+    <row r="962">
+      <c r="W962" s="8"/>
+    </row>
+    <row r="963">
+      <c r="W963" s="8"/>
+    </row>
+    <row r="964">
+      <c r="W964" s="8"/>
+    </row>
+    <row r="965">
+      <c r="W965" s="8"/>
+    </row>
+    <row r="966">
+      <c r="W966" s="8"/>
+    </row>
+    <row r="967">
+      <c r="W967" s="8"/>
+    </row>
+    <row r="968">
+      <c r="W968" s="8"/>
+    </row>
+    <row r="969">
+      <c r="W969" s="8"/>
+    </row>
+    <row r="970">
+      <c r="W970" s="8"/>
+    </row>
+    <row r="971">
+      <c r="W971" s="8"/>
+    </row>
+    <row r="972">
+      <c r="W972" s="8"/>
+    </row>
+    <row r="973">
+      <c r="W973" s="8"/>
+    </row>
+    <row r="974">
+      <c r="W974" s="8"/>
+    </row>
+    <row r="975">
+      <c r="W975" s="8"/>
+    </row>
+    <row r="976">
+      <c r="W976" s="8"/>
+    </row>
+    <row r="977">
+      <c r="W977" s="8"/>
+    </row>
+    <row r="978">
+      <c r="W978" s="8"/>
+    </row>
+    <row r="979">
+      <c r="W979" s="8"/>
+    </row>
+    <row r="980">
+      <c r="W980" s="8"/>
+    </row>
+    <row r="981">
+      <c r="W981" s="8"/>
+    </row>
+    <row r="982">
+      <c r="W982" s="8"/>
+    </row>
+    <row r="983">
+      <c r="W983" s="8"/>
+    </row>
+    <row r="984">
+      <c r="W984" s="8"/>
+    </row>
+    <row r="985">
+      <c r="W985" s="8"/>
+    </row>
+    <row r="986">
+      <c r="W986" s="8"/>
+    </row>
+    <row r="987">
+      <c r="W987" s="8"/>
+    </row>
+    <row r="988">
+      <c r="W988" s="8"/>
+    </row>
+    <row r="989">
+      <c r="W989" s="8"/>
+    </row>
+    <row r="990">
+      <c r="W990" s="8"/>
+    </row>
+    <row r="991">
+      <c r="W991" s="8"/>
+    </row>
+    <row r="992">
+      <c r="W992" s="8"/>
+    </row>
+    <row r="993">
+      <c r="W993" s="8"/>
+    </row>
+    <row r="994">
+      <c r="W994" s="8"/>
+    </row>
+    <row r="995">
+      <c r="W995" s="8"/>
+    </row>
+    <row r="996">
+      <c r="W996" s="8"/>
+    </row>
+    <row r="997">
+      <c r="W997" s="8"/>
+    </row>
+    <row r="998">
+      <c r="W998" s="8"/>
+    </row>
+    <row r="999">
+      <c r="W999" s="8"/>
+    </row>
+    <row r="1000">
+      <c r="W1000" s="8"/>
+    </row>
+    <row r="1001">
+      <c r="W1001" s="8"/>
+    </row>
+    <row r="1002">
+      <c r="W1002" s="8"/>
+    </row>
+    <row r="1003">
+      <c r="W1003" s="8"/>
+    </row>
+    <row r="1004">
+      <c r="W1004" s="8"/>
+    </row>
+    <row r="1005">
+      <c r="W1005" s="8"/>
+    </row>
+    <row r="1006">
+      <c r="W1006" s="8"/>
+    </row>
+    <row r="1007">
+      <c r="W1007" s="8"/>
+    </row>
+    <row r="1008">
+      <c r="W1008" s="8"/>
+    </row>
+    <row r="1009">
+      <c r="W1009" s="8"/>
+    </row>
+    <row r="1010">
+      <c r="W1010" s="8"/>
+    </row>
+    <row r="1011">
+      <c r="W1011" s="8"/>
+    </row>
+    <row r="1012">
+      <c r="W1012" s="8"/>
+    </row>
+    <row r="1013">
+      <c r="W1013" s="8"/>
+    </row>
+    <row r="1014">
+      <c r="W1014" s="8"/>
+    </row>
+    <row r="1015">
+      <c r="W1015" s="8"/>
+    </row>
+    <row r="1016">
+      <c r="W1016" s="8"/>
+    </row>
+    <row r="1017">
+      <c r="W1017" s="8"/>
+    </row>
+    <row r="1018">
+      <c r="W1018" s="8"/>
+    </row>
+    <row r="1019">
+      <c r="W1019" s="8"/>
+    </row>
+    <row r="1020">
+      <c r="W1020" s="8"/>
+    </row>
+    <row r="1021">
+      <c r="W1021" s="8"/>
+    </row>
+    <row r="1022">
+      <c r="W1022" s="8"/>
+    </row>
+    <row r="1023">
+      <c r="W1023" s="8"/>
+    </row>
+    <row r="1024">
+      <c r="W1024" s="8"/>
+    </row>
+    <row r="1025">
+      <c r="W1025" s="8"/>
+    </row>
+    <row r="1026">
+      <c r="W1026" s="8"/>
+    </row>
+    <row r="1027">
+      <c r="W1027" s="8"/>
+    </row>
+    <row r="1028">
+      <c r="W1028" s="8"/>
+    </row>
+    <row r="1029">
+      <c r="W1029" s="8"/>
+    </row>
+    <row r="1030">
+      <c r="W1030" s="8"/>
+    </row>
+    <row r="1031">
+      <c r="W1031" s="8"/>
+    </row>
+    <row r="1032">
+      <c r="W1032" s="8"/>
+    </row>
+    <row r="1033">
+      <c r="W1033" s="8"/>
+    </row>
+    <row r="1034">
+      <c r="W1034" s="8"/>
+    </row>
+    <row r="1035">
+      <c r="W1035" s="8"/>
+    </row>
+    <row r="1036">
+      <c r="W1036" s="8"/>
+    </row>
+    <row r="1037">
+      <c r="W1037" s="8"/>
+    </row>
+    <row r="1038">
+      <c r="W1038" s="8"/>
+    </row>
+    <row r="1039">
+      <c r="W1039" s="8"/>
+    </row>
+    <row r="1040">
+      <c r="W1040" s="8"/>
+    </row>
+    <row r="1041">
+      <c r="W1041" s="8"/>
+    </row>
+    <row r="1042">
+      <c r="W1042" s="8"/>
+    </row>
+    <row r="1043">
+      <c r="W1043" s="8"/>
+    </row>
+    <row r="1044">
+      <c r="W1044" s="8"/>
+    </row>
+    <row r="1045">
+      <c r="W1045" s="8"/>
+    </row>
+    <row r="1046">
+      <c r="W1046" s="8"/>
+    </row>
+    <row r="1047">
+      <c r="W1047" s="8"/>
+    </row>
+    <row r="1048">
+      <c r="W1048" s="8"/>
+    </row>
+    <row r="1049">
+      <c r="W1049" s="8"/>
+    </row>
+    <row r="1050">
+      <c r="W1050" s="8"/>
+    </row>
+    <row r="1051">
+      <c r="W1051" s="8"/>
+    </row>
+    <row r="1052">
+      <c r="W1052" s="8"/>
+    </row>
+    <row r="1053">
+      <c r="W1053" s="8"/>
+    </row>
+    <row r="1054">
+      <c r="W1054" s="8"/>
     </row>
   </sheetData>
   <printOptions gridLines="1" horizontalCentered="1"/>
